--- a/index/contributioin.xlsx
+++ b/index/contributioin.xlsx
@@ -1127,7 +1127,7 @@
         <v>22</v>
       </c>
       <c r="C45">
-        <v>-0.005706374840255572</v>
+        <v>-0.005700907348242797</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1138,7 +1138,7 @@
         <v>20</v>
       </c>
       <c r="C46">
-        <v>-0.00507157829294997</v>
+        <v>-0.005066661653852495</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1149,7 +1149,7 @@
         <v>21</v>
       </c>
       <c r="C47">
-        <v>-0.004130169856951873</v>
+        <v>-0.004126262032085545</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1157,10 +1157,10 @@
         <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C48">
-        <v>-0.003600236657142858</v>
+        <v>-0.003634118556701011</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1168,10 +1168,10 @@
         <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="C49">
-        <v>-0.003357068677835029</v>
+        <v>-0.003596813445378153</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1182,7 +1182,7 @@
         <v>31</v>
       </c>
       <c r="C50">
-        <v>-0.00327011979807692</v>
+        <v>-0.003267034615384604</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1193,7 +1193,7 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>-0.003003742545135758</v>
+        <v>-0.003000844935494921</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1204,7 +1204,7 @@
         <v>25</v>
       </c>
       <c r="C52">
-        <v>-0.002876313214457834</v>
+        <v>-0.002873532530120484</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1215,7 +1215,7 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>-0.002618888863070542</v>
+        <v>-0.002414838174273859</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1223,10 +1223,10 @@
         <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C54">
-        <v>-0.002377856616099073</v>
+        <v>-0.002321897187021639</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1234,10 +1234,10 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C55">
-        <v>-0.002324066594451879</v>
+        <v>-0.00203522910216718</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1248,7 +1248,7 @@
         <v>30</v>
       </c>
       <c r="C56">
-        <v>-0.001980173991097909</v>
+        <v>-0.001978397626112759</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1259,7 +1259,7 @@
         <v>43</v>
       </c>
       <c r="C57">
-        <v>-0.001486327179534799</v>
+        <v>-0.001484934281071683</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1270,7 +1270,7 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>-0.000584021350515464</v>
+        <v>-0.0006252371134020597</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1281,7 +1281,7 @@
         <v>37</v>
       </c>
       <c r="C59">
-        <v>-0.0005752537840909087</v>
+        <v>-0.0005747045454545413</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1292,7 +1292,7 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>-0.0004235171441860464</v>
+        <v>-0.0003948697674418624</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1303,7 +1303,7 @@
         <v>33</v>
       </c>
       <c r="C61">
-        <v>-0.0003017774205607477</v>
+        <v>-0.0003520000000000007</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1314,7 +1314,7 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>-0.0001760545253991282</v>
+        <v>-0.000175898403483308</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1325,7 +1325,7 @@
         <v>40</v>
       </c>
       <c r="C63">
-        <v>-0.0001316223170731732</v>
+        <v>-0.0001315000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1336,7 +1336,7 @@
         <v>32</v>
       </c>
       <c r="C64">
-        <v>-8.628985588235292e-05</v>
+        <v>-8.625294117647028e-05</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1347,7 +1347,7 @@
         <v>38</v>
       </c>
       <c r="C65">
-        <v>-7.820161165048541e-05</v>
+        <v>-7.814563106796112e-05</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1358,7 +1358,7 @@
         <v>41</v>
       </c>
       <c r="C66">
-        <v>2.220740928270044e-05</v>
+        <v>2.221097046413504e-05</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1366,10 +1366,10 @@
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C67">
-        <v>0.0007597931987179413</v>
+        <v>0.0007165085324232105</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1380,7 +1380,7 @@
         <v>18</v>
       </c>
       <c r="C68">
-        <v>0.0007730302518309157</v>
+        <v>0.0007989411088426048</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1388,10 +1388,10 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C69">
-        <v>0.000807060409556314</v>
+        <v>0.000854333333333333</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1402,7 +1402,7 @@
         <v>53</v>
       </c>
       <c r="C70">
-        <v>0.001058278582914569</v>
+        <v>0.001057266331658296</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="C71">
-        <v>0.001084414092050212</v>
+        <v>0.001083380753138071</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1424,7 +1424,7 @@
         <v>39</v>
       </c>
       <c r="C72">
-        <v>0.001112611791530944</v>
+        <v>0.001111921824104235</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1435,7 +1435,7 @@
         <v>34</v>
       </c>
       <c r="C73">
-        <v>0.001258793620562252</v>
+        <v>0.001257820663690919</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1446,7 +1446,7 @@
         <v>44</v>
       </c>
       <c r="C74">
-        <v>0.001359757693069311</v>
+        <v>0.001358467821782176</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1457,7 +1457,7 @@
         <v>27</v>
       </c>
       <c r="C75">
-        <v>0.002391790285714286</v>
+        <v>0.002389485714285715</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1468,7 +1468,7 @@
         <v>66</v>
       </c>
       <c r="C76">
-        <v>0.002553546047346941</v>
+        <v>0.002551144489795905</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1479,7 +1479,7 @@
         <v>60</v>
       </c>
       <c r="C77">
-        <v>0.002965504217864925</v>
+        <v>0.002962631808278875</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1490,7 +1490,7 @@
         <v>52</v>
       </c>
       <c r="C78">
-        <v>0.003123628202360873</v>
+        <v>0.003120630691399659</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1501,7 +1501,7 @@
         <v>23</v>
       </c>
       <c r="C79">
-        <v>0.003943554061056096</v>
+        <v>0.003808323432343235</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1512,7 +1512,7 @@
         <v>57</v>
       </c>
       <c r="C80">
-        <v>0.004118210073937156</v>
+        <v>0.004114232902033265</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1523,7 +1523,7 @@
         <v>24</v>
       </c>
       <c r="C81">
-        <v>0.007005568464163824</v>
+        <v>0.007128464163822527</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1534,7 +1534,7 @@
         <v>26</v>
       </c>
       <c r="C82">
-        <v>0.008034494949999997</v>
+        <v>0.008026719999999998</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1545,7 +1545,7 @@
         <v>53</v>
       </c>
       <c r="C83">
-        <v>-0.003766783443902442</v>
+        <v>-0.003763180487804873</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1556,7 +1556,7 @@
         <v>24</v>
       </c>
       <c r="C84">
-        <v>-0.002465623495495497</v>
+        <v>-0.002508876876876878</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1564,10 +1564,10 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="C85">
-        <v>-0.002328585806483541</v>
+        <v>-0.002321283255086073</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1575,10 +1575,10 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C86">
-        <v>-0.002323487323943662</v>
+        <v>-0.002215469438257849</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1589,7 +1589,7 @@
         <v>23</v>
       </c>
       <c r="C87">
-        <v>-0.001447662541353382</v>
+        <v>-0.001446267669172931</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1600,7 +1600,7 @@
         <v>61</v>
       </c>
       <c r="C88">
-        <v>-0.0008794481008130086</v>
+        <v>-0.000878734959349592</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1611,7 +1611,7 @@
         <v>28</v>
       </c>
       <c r="C89">
-        <v>-0.000262322842105262</v>
+        <v>-0.0002620728744939297</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1622,7 +1622,7 @@
         <v>32</v>
       </c>
       <c r="C90">
-        <v>0.0001026862796352584</v>
+        <v>0.0001026423505572442</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1633,7 +1633,7 @@
         <v>41</v>
       </c>
       <c r="C91">
-        <v>0.0002074688049792529</v>
+        <v>0.0002075020746887965</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1644,7 +1644,7 @@
         <v>37</v>
       </c>
       <c r="C92">
-        <v>0.0003901528554913244</v>
+        <v>0.0003897803468208117</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1655,7 +1655,7 @@
         <v>38</v>
       </c>
       <c r="C93">
-        <v>0.0004355015960591128</v>
+        <v>0.0004352315270935955</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1663,10 +1663,10 @@
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C94">
-        <v>0.0009323396790890245</v>
+        <v>0.0009569311163895425</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1674,10 +1674,10 @@
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C95">
-        <v>0.0009578055534441797</v>
+        <v>0.0009655757575757501</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1685,10 +1685,10 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C96">
-        <v>0.0009665017992424248</v>
+        <v>0.001112427184466019</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1696,10 +1696,10 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C97">
-        <v>0.001113466553398058</v>
+        <v>0.001221749089498086</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1707,10 +1707,10 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C98">
-        <v>0.001222899201051188</v>
+        <v>0.00130615320910973</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1721,7 +1721,7 @@
         <v>40</v>
       </c>
       <c r="C99">
-        <v>0.001315876716564419</v>
+        <v>0.001314660122699388</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1729,10 +1729,10 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C100">
-        <v>0.001472773243150673</v>
+        <v>0.001514499999999997</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1740,10 +1740,10 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="C101">
-        <v>0.001515825</v>
+        <v>0.001605527397260275</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1751,10 +1751,10 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C102">
-        <v>0.001675391328</v>
+        <v>0.001809181065088745</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1762,10 +1762,10 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C103">
-        <v>0.001810878113609468</v>
+        <v>0.001889051020408164</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1773,10 +1773,10 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C104">
-        <v>0.002259776383233516</v>
+        <v>0.002095392</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1784,10 +1784,10 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C105">
-        <v>0.002547592331914876</v>
+        <v>0.00225777245508982</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1795,10 +1795,10 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C106">
-        <v>0.002677721316515479</v>
+        <v>0.002332731914893616</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1806,10 +1806,10 @@
         <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C107">
-        <v>0.00331759674489796</v>
+        <v>0.002675422878265355</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1817,10 +1817,10 @@
         <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C108">
-        <v>0.003720924059080961</v>
+        <v>0.003845247131879928</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1828,10 +1828,10 @@
         <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C109">
-        <v>0.003848960094528862</v>
+        <v>0.003903518599562353</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1842,7 +1842,7 @@
         <v>19</v>
       </c>
       <c r="C110">
-        <v>0.003977772624578422</v>
+        <v>0.003974116378528264</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1853,7 +1853,7 @@
         <v>20</v>
       </c>
       <c r="C111">
-        <v>0.004152704753100509</v>
+        <v>0.004148686196611141</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1864,7 +1864,7 @@
         <v>45</v>
       </c>
       <c r="C112">
-        <v>0.004308598644486689</v>
+        <v>0.004304501901140682</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1875,7 +1875,7 @@
         <v>56</v>
       </c>
       <c r="C113">
-        <v>0.004317211999999999</v>
+        <v>0.004313199999999999</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1886,7 +1886,7 @@
         <v>26</v>
       </c>
       <c r="C114">
-        <v>0.005053383330484327</v>
+        <v>0.005048484330484327</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1897,7 +1897,7 @@
         <v>52</v>
       </c>
       <c r="C115">
-        <v>0.005122738336448587</v>
+        <v>0.005117822429906545</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1908,7 +1908,7 @@
         <v>25</v>
       </c>
       <c r="C116">
-        <v>0.005547012976863753</v>
+        <v>0.005541650385604112</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1919,7 +1919,7 @@
         <v>57</v>
       </c>
       <c r="C117">
-        <v>0.006861035538071055</v>
+        <v>0.006854409475465322</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1930,7 +1930,7 @@
         <v>60</v>
       </c>
       <c r="C118">
-        <v>0.006887685837782329</v>
+        <v>0.006881014373716635</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1941,7 +1941,7 @@
         <v>27</v>
       </c>
       <c r="C119">
-        <v>0.01026308589527024</v>
+        <v>0.01025320945945944</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1952,7 +1952,7 @@
         <v>18</v>
       </c>
       <c r="C120">
-        <v>0.01743128541058338</v>
+        <v>0.0174145337830485</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1963,7 +1963,7 @@
         <v>28</v>
       </c>
       <c r="C121">
-        <v>-0.009741922302040811</v>
+        <v>-0.009357910204081605</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1974,7 +1974,7 @@
         <v>33</v>
       </c>
       <c r="C122">
-        <v>-0.005454401866666667</v>
+        <v>-0.006289422222222223</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -1982,10 +1982,10 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C123">
-        <v>-0.005246143787061995</v>
+        <v>-0.00617399549549546</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1993,10 +1993,10 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C124">
-        <v>-0.004673620288525524</v>
+        <v>-0.005241088948787069</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2004,10 +2004,10 @@
         <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C125">
-        <v>-0.00441198823372287</v>
+        <v>-0.004423149987607693</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2015,10 +2015,10 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C126">
-        <v>-0.004332168541366437</v>
+        <v>-0.004407803005008346</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2026,10 +2026,10 @@
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C127">
-        <v>-0.003883558326415093</v>
+        <v>-0.004327989443743204</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2040,7 +2040,7 @@
         <v>22</v>
       </c>
       <c r="C128">
-        <v>-0.003766147232472316</v>
+        <v>-0.003762538745387441</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2051,7 +2051,7 @@
         <v>31</v>
       </c>
       <c r="C129">
-        <v>-0.003425839788461535</v>
+        <v>-0.003422607692307682</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2059,10 +2059,10 @@
         <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C130">
-        <v>-0.003275595809756078</v>
+        <v>-0.003324705660377359</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2070,10 +2070,10 @@
         <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C131">
-        <v>-0.003155979869230748</v>
+        <v>-0.002999336585365853</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2084,7 +2084,7 @@
         <v>44</v>
       </c>
       <c r="C132">
-        <v>-0.002906243518722467</v>
+        <v>-0.002903480176211454</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2095,7 +2095,7 @@
         <v>20</v>
       </c>
       <c r="C133">
-        <v>-0.00236308672267072</v>
+        <v>-0.002428299971916524</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2106,7 +2106,7 @@
         <v>43</v>
       </c>
       <c r="C134">
-        <v>-0.002285134234165001</v>
+        <v>-0.002410003381085062</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2114,10 +2114,10 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C135">
-        <v>-0.002138627674796749</v>
+        <v>-0.002291225641025641</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2125,10 +2125,10 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C136">
-        <v>-0.001704552979262672</v>
+        <v>-0.001993967479674797</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2139,7 +2139,7 @@
         <v>57</v>
       </c>
       <c r="C137">
-        <v>-0.001698731463343107</v>
+        <v>-0.001697090909090913</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2150,7 +2150,7 @@
         <v>53</v>
       </c>
       <c r="C138">
-        <v>-0.001534278043715848</v>
+        <v>-0.001532816029143895</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2158,10 +2158,10 @@
         <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C139">
-        <v>-0.001182930319999998</v>
+        <v>-0.001214760368663594</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2172,7 +2172,7 @@
         <v>64</v>
       </c>
       <c r="C140">
-        <v>-0.001162803701960776</v>
+        <v>-0.001045301960784311</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2180,10 +2180,10 @@
         <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C141">
-        <v>-0.0009401071317567567</v>
+        <v>-0.0009444159999999995</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2194,7 +2194,7 @@
         <v>66</v>
       </c>
       <c r="C142">
-        <v>-0.0008843488198975445</v>
+        <v>-0.0008835233216500434</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2205,7 +2205,7 @@
         <v>23</v>
       </c>
       <c r="C143">
-        <v>-0.0007654666479750738</v>
+        <v>-0.0007647320872274123</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2213,10 +2213,10 @@
         <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C144">
-        <v>-0.0005448427082926834</v>
+        <v>-0.0005288217317487235</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2224,10 +2224,10 @@
         <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C145">
-        <v>-0.0005293225585738528</v>
+        <v>-0.000407477073170732</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2238,7 +2238,7 @@
         <v>37</v>
       </c>
       <c r="C146">
-        <v>-0.0001928469828571408</v>
+        <v>-0.0002003771428571414</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2249,7 +2249,7 @@
         <v>61</v>
       </c>
       <c r="C147">
-        <v>-0.0001686593357664233</v>
+        <v>-0.0001118941605839418</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2260,7 +2260,7 @@
         <v>42</v>
       </c>
       <c r="C148">
-        <v>-5.870942545454494e-05</v>
+        <v>-5.866181818181849e-05</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2271,7 +2271,7 @@
         <v>41</v>
       </c>
       <c r="C149">
-        <v>-1.414826881720414e-05</v>
+        <v>-1.415053763440874e-05</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2282,7 +2282,7 @@
         <v>25</v>
       </c>
       <c r="C150">
-        <v>0.0001052990458715565</v>
+        <v>0.0001051972477064189</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2293,7 +2293,7 @@
         <v>62</v>
       </c>
       <c r="C151">
-        <v>0.0006348841176470565</v>
+        <v>0.0006342941176470613</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2304,7 +2304,7 @@
         <v>34</v>
       </c>
       <c r="C152">
-        <v>0.001203403053435113</v>
+        <v>0.001336320610687024</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2315,7 +2315,7 @@
         <v>60</v>
       </c>
       <c r="C153">
-        <v>0.001797281942446032</v>
+        <v>0.001795539568345324</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2323,10 +2323,10 @@
         <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C154">
-        <v>0.00207533230401034</v>
+        <v>0.001833333333333333</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2334,10 +2334,10 @@
         <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C155">
-        <v>0.002097984618380042</v>
+        <v>0.002015689521345413</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2348,7 +2348,7 @@
         <v>52</v>
       </c>
       <c r="C156">
-        <v>0.0031688120617284</v>
+        <v>0.003275026063100134</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2359,7 +2359,7 @@
         <v>18</v>
       </c>
       <c r="C157">
-        <v>0.003599856233512447</v>
+        <v>0.003476411540173212</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2370,7 +2370,7 @@
         <v>24</v>
       </c>
       <c r="C158">
-        <v>0.01311223630599369</v>
+        <v>0.01334225867507886</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2381,7 +2381,7 @@
         <v>43</v>
       </c>
       <c r="C159">
-        <v>-0.007942420303727927</v>
+        <v>-0.007934837069653353</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2392,7 +2392,7 @@
         <v>25</v>
       </c>
       <c r="C160">
-        <v>-0.006198427130434784</v>
+        <v>-0.006192434782608697</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2403,7 +2403,7 @@
         <v>37</v>
       </c>
       <c r="C161">
-        <v>-0.005547346307471264</v>
+        <v>-0.005542040229885054</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2414,7 +2414,7 @@
         <v>52</v>
       </c>
       <c r="C162">
-        <v>-0.003238342229695423</v>
+        <v>-0.003235225888324865</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2425,7 +2425,7 @@
         <v>44</v>
       </c>
       <c r="C163">
-        <v>-0.002519319251518836</v>
+        <v>-0.002516918590522479</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2436,7 +2436,7 @@
         <v>53</v>
       </c>
       <c r="C164">
-        <v>-0.002324441267686427</v>
+        <v>-0.002322271510516249</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2447,7 +2447,7 @@
         <v>57</v>
       </c>
       <c r="C165">
-        <v>-0.00216938295731707</v>
+        <v>-0.002167292682926831</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2458,7 +2458,7 @@
         <v>39</v>
       </c>
       <c r="C166">
-        <v>-0.002113862161520177</v>
+        <v>-0.002111947743467932</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2469,7 +2469,7 @@
         <v>55</v>
       </c>
       <c r="C167">
-        <v>-0.001650854128440368</v>
+        <v>-0.001649296636085622</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2480,7 +2480,7 @@
         <v>62</v>
       </c>
       <c r="C168">
-        <v>-0.001602507125000003</v>
+        <v>-0.001600999999999994</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2491,7 +2491,7 @@
         <v>60</v>
       </c>
       <c r="C169">
-        <v>-0.0008674381597222247</v>
+        <v>-0.0008665972222222248</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2499,10 +2499,10 @@
         <v>7</v>
       </c>
       <c r="B170" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C170">
-        <v>-0.0001692771355311354</v>
+        <v>-0.0001243751987281358</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2510,10 +2510,10 @@
         <v>7</v>
       </c>
       <c r="B171" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C171">
-        <v>-0.0001244948394276632</v>
+        <v>-0.0001123040293040292</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2524,7 +2524,7 @@
         <v>33</v>
       </c>
       <c r="C172">
-        <v>-5.774025806451608e-05</v>
+        <v>-5.769892473118274e-05</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2535,7 +2535,7 @@
         <v>65</v>
       </c>
       <c r="C173">
-        <v>3.283971498371332e-05</v>
+        <v>3.281433224755702e-05</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2546,7 +2546,7 @@
         <v>41</v>
       </c>
       <c r="C174">
-        <v>3.337146014492768e-05</v>
+        <v>3.337681159420276e-05</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2554,10 +2554,10 @@
         <v>7</v>
       </c>
       <c r="B175" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C175">
-        <v>0.0001797060266666665</v>
+        <v>0.0001901845819761119</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2565,10 +2565,10 @@
         <v>7</v>
       </c>
       <c r="B176" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="C176">
-        <v>0.0001956478834951453</v>
+        <v>0.0001975466666666679</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2576,10 +2576,10 @@
         <v>7</v>
       </c>
       <c r="B177" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C177">
-        <v>0.0002050310206297504</v>
+        <v>0.0002945933117583606</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2590,7 +2590,7 @@
         <v>64</v>
       </c>
       <c r="C178">
-        <v>0.0003002663748211726</v>
+        <v>0.0003000228898426332</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2601,7 +2601,7 @@
         <v>40</v>
       </c>
       <c r="C179">
-        <v>0.0004108872545710266</v>
+        <v>0.0004105428973277069</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2612,7 +2612,7 @@
         <v>56</v>
       </c>
       <c r="C180">
-        <v>0.0008277835090909066</v>
+        <v>0.0007717909090909109</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2623,7 +2623,7 @@
         <v>45</v>
       </c>
       <c r="C181">
-        <v>0.0009507572647058749</v>
+        <v>0.0009499411764705896</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2634,7 +2634,7 @@
         <v>19</v>
       </c>
       <c r="C182">
-        <v>0.000971212510078851</v>
+        <v>0.0009703635620961679</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>24</v>
       </c>
       <c r="C183">
-        <v>0.001418275575376882</v>
+        <v>0.001443155778894481</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2653,10 +2653,10 @@
         <v>7</v>
       </c>
       <c r="B184" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C184">
-        <v>0.001983351279009127</v>
+        <v>0.001863806228373701</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2664,10 +2664,10 @@
         <v>7</v>
       </c>
       <c r="B185" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C185">
-        <v>0.002022343983539084</v>
+        <v>0.001981465449804434</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -2675,10 +2675,10 @@
         <v>7</v>
       </c>
       <c r="B186" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C186">
-        <v>0.002052498685121095</v>
+        <v>0.002020403292181073</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2689,7 +2689,7 @@
         <v>27</v>
       </c>
       <c r="C187">
-        <v>0.00269656568875193</v>
+        <v>0.00269395377503852</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2700,7 +2700,7 @@
         <v>49</v>
       </c>
       <c r="C188">
-        <v>0.002787592329515996</v>
+        <v>0.002784903232735122</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -2711,7 +2711,7 @@
         <v>31</v>
       </c>
       <c r="C189">
-        <v>0.005212830879955946</v>
+        <v>0.005207898678414077</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2722,7 +2722,7 @@
         <v>26</v>
       </c>
       <c r="C190">
-        <v>0.006098288387096779</v>
+        <v>0.006092387096774198</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2733,7 +2733,7 @@
         <v>20</v>
       </c>
       <c r="C191">
-        <v>0.006314033006092003</v>
+        <v>0.006307935212579493</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -2744,7 +2744,7 @@
         <v>18</v>
       </c>
       <c r="C192">
-        <v>0.006841594245035496</v>
+        <v>0.006835104282875447</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -2755,7 +2755,7 @@
         <v>34</v>
       </c>
       <c r="C193">
-        <v>0.008349261937500001</v>
+        <v>0.008341437499999965</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2766,7 +2766,7 @@
         <v>66</v>
       </c>
       <c r="C194">
-        <v>0.009842662243409989</v>
+        <v>0.009833515423443634</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2777,7 +2777,7 @@
         <v>63</v>
       </c>
       <c r="C195">
-        <v>0.0101533182573913</v>
+        <v>0.01170770086956521</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2788,7 +2788,7 @@
         <v>28</v>
       </c>
       <c r="C196">
-        <v>0.01379780776836154</v>
+        <v>0.01378458757062144</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2799,7 +2799,7 @@
         <v>23</v>
       </c>
       <c r="C197">
-        <v>-0.008036073180223289</v>
+        <v>-0.008027604465709727</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2810,7 +2810,7 @@
         <v>28</v>
       </c>
       <c r="C198">
-        <v>-0.006528816983606557</v>
+        <v>-0.00652603278688525</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2821,7 +2821,7 @@
         <v>59</v>
       </c>
       <c r="C199">
-        <v>-0.006394420369186044</v>
+        <v>-0.00616523546511628</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2829,10 +2829,10 @@
         <v>8</v>
       </c>
       <c r="B200" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C200">
-        <v>-0.004998163289302325</v>
+        <v>-0.00483825407166124</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -2840,10 +2840,10 @@
         <v>8</v>
       </c>
       <c r="B201" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C201">
-        <v>-0.004846269915309446</v>
+        <v>-0.004796652905827762</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -2851,10 +2851,10 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C202">
-        <v>-0.004798139765336007</v>
+        <v>-0.004557796279069767</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2865,7 +2865,7 @@
         <v>18</v>
       </c>
       <c r="C203">
-        <v>-0.003950357441849633</v>
+        <v>-0.003948864293754312</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="C204">
-        <v>-0.003718721733107091</v>
+        <v>-0.003713878727688245</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2887,7 +2887,7 @@
         <v>67</v>
       </c>
       <c r="C205">
-        <v>-0.002400809290322579</v>
+        <v>-0.00262585806451613</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2898,7 +2898,7 @@
         <v>26</v>
       </c>
       <c r="C206">
-        <v>-0.002202939361538453</v>
+        <v>-0.002202846153846155</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -2909,7 +2909,7 @@
         <v>56</v>
       </c>
       <c r="C207">
-        <v>-0.001816335262008734</v>
+        <v>-0.001814082969432315</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2920,7 +2920,7 @@
         <v>68</v>
       </c>
       <c r="C208">
-        <v>-0.001254797675496689</v>
+        <v>-0.001366668874172185</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2931,7 +2931,7 @@
         <v>69</v>
       </c>
       <c r="C209">
-        <v>-0.001009339400866739</v>
+        <v>-0.001007639219934995</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -2942,7 +2942,7 @@
         <v>25</v>
       </c>
       <c r="C210">
-        <v>-0.0005265656349206404</v>
+        <v>-0.0005261772486772498</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2953,7 +2953,7 @@
         <v>62</v>
       </c>
       <c r="C211">
-        <v>-0.0005025164533333297</v>
+        <v>-0.0004720533333333325</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2964,7 +2964,7 @@
         <v>70</v>
       </c>
       <c r="C212">
-        <v>-0.0004590559163498101</v>
+        <v>-0.0004560912547528519</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -2975,7 +2975,7 @@
         <v>71</v>
       </c>
       <c r="C213">
-        <v>-0.0004551430659898472</v>
+        <v>-0.0004531167512690349</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2986,7 +2986,7 @@
         <v>35</v>
       </c>
       <c r="C214">
-        <v>-0.0003458183469721762</v>
+        <v>-0.0003113387888707033</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2997,7 +2997,7 @@
         <v>72</v>
       </c>
       <c r="C215">
-        <v>-0.000178687123188405</v>
+        <v>-0.0001772971014492749</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3005,10 +3005,10 @@
         <v>8</v>
       </c>
       <c r="B216" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C216">
-        <v>-0.0001468142301507539</v>
+        <v>-0.0001459374629052634</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3016,10 +3016,10 @@
         <v>8</v>
       </c>
       <c r="B217" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C217">
-        <v>-0.000131727982657359</v>
+        <v>-0.0001452924623115578</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3030,7 +3030,7 @@
         <v>45</v>
       </c>
       <c r="C218">
-        <v>-0.0001200678018018035</v>
+        <v>-0.0001097567567567556</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3041,7 +3041,7 @@
         <v>57</v>
       </c>
       <c r="C219">
-        <v>-5.867887138263607e-05</v>
+        <v>-5.86430868167195e-05</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3052,7 +3052,7 @@
         <v>42</v>
       </c>
       <c r="C220">
-        <v>-4.324865009560218e-05</v>
+        <v>-4.323135755258078e-05</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3063,7 +3063,7 @@
         <v>64</v>
       </c>
       <c r="C221">
-        <v>-4.309343448275836e-05</v>
+        <v>-4.300689655172469e-05</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3074,7 +3074,7 @@
         <v>20</v>
       </c>
       <c r="C222">
-        <v>0.0002979794242609895</v>
+        <v>0.000297836878162316</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3085,7 +3085,7 @@
         <v>40</v>
       </c>
       <c r="C223">
-        <v>0.0005233915768194032</v>
+        <v>0.0005232816711590293</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3096,7 +3096,7 @@
         <v>21</v>
       </c>
       <c r="C224">
-        <v>0.0005662020957446807</v>
+        <v>0.0006010531914893583</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3107,7 +3107,7 @@
         <v>43</v>
       </c>
       <c r="C225">
-        <v>0.0007577024028473621</v>
+        <v>0.0007572557438094596</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3115,10 +3115,10 @@
         <v>8</v>
       </c>
       <c r="B226" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C226">
-        <v>0.0009764107586206916</v>
+        <v>0.0009744360902255646</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3126,10 +3126,10 @@
         <v>8</v>
       </c>
       <c r="B227" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C227">
-        <v>0.0009765266616541329</v>
+        <v>0.0009762758620689674</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3140,7 +3140,7 @@
         <v>39</v>
       </c>
       <c r="C228">
-        <v>0.001266477475409835</v>
+        <v>0.001261781420765027</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3151,7 +3151,7 @@
         <v>24</v>
       </c>
       <c r="C229">
-        <v>0.001475724750611243</v>
+        <v>0.001504471882640586</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3162,7 +3162,7 @@
         <v>34</v>
       </c>
       <c r="C230">
-        <v>0.001804058720930234</v>
+        <v>0.001801459948320415</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3173,7 +3173,7 @@
         <v>22</v>
       </c>
       <c r="C231">
-        <v>0.0018753175546875</v>
+        <v>0.00187359375</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3184,7 +3184,7 @@
         <v>60</v>
       </c>
       <c r="C232">
-        <v>0.002082076462897516</v>
+        <v>0.00208082685512367</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3192,10 +3192,10 @@
         <v>8</v>
       </c>
       <c r="B233" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C233">
-        <v>0.002753267313993166</v>
+        <v>0.002767246715328471</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3203,10 +3203,10 @@
         <v>8</v>
       </c>
       <c r="B234" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C234">
-        <v>0.002769653354744514</v>
+        <v>0.002852692832764499</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3217,7 +3217,7 @@
         <v>30</v>
       </c>
       <c r="C235">
-        <v>0.005395252687499981</v>
+        <v>0.005388749999999999</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3228,7 +3228,7 @@
         <v>73</v>
       </c>
       <c r="C236">
-        <v>0.005897356812490487</v>
+        <v>0.005892439702525495</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3239,7 +3239,7 @@
         <v>66</v>
       </c>
       <c r="C237">
-        <v>0.009252430093605504</v>
+        <v>0.00925194530046225</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3250,7 +3250,7 @@
         <v>74</v>
       </c>
       <c r="C238">
-        <v>0.01382677320754717</v>
+        <v>0.01382369811320755</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3261,7 +3261,7 @@
         <v>22</v>
       </c>
       <c r="C239">
-        <v>-0.007192863648148123</v>
+        <v>-0.007191166666666665</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3272,7 +3272,7 @@
         <v>26</v>
       </c>
       <c r="C240">
-        <v>-0.006831723414634126</v>
+        <v>-0.006828455284552829</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3283,7 +3283,7 @@
         <v>74</v>
       </c>
       <c r="C241">
-        <v>-0.006356321252566731</v>
+        <v>-0.00635490759753593</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3294,7 +3294,7 @@
         <v>60</v>
       </c>
       <c r="C242">
-        <v>-0.005665650374999987</v>
+        <v>-0.005662250000000001</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3305,7 +3305,7 @@
         <v>20</v>
       </c>
       <c r="C243">
-        <v>-0.005186300675183459</v>
+        <v>-0.005182475344203382</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3316,7 +3316,7 @@
         <v>18</v>
       </c>
       <c r="C244">
-        <v>-0.005080790636078245</v>
+        <v>-0.005074490352605619</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3327,7 +3327,7 @@
         <v>57</v>
       </c>
       <c r="C245">
-        <v>-0.004662359423510467</v>
+        <v>-0.004657446054750402</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3338,7 +3338,7 @@
         <v>49</v>
       </c>
       <c r="C246">
-        <v>-0.004138269786565206</v>
+        <v>-0.004136987409210485</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3349,7 +3349,7 @@
         <v>73</v>
       </c>
       <c r="C247">
-        <v>-0.004075959789696712</v>
+        <v>-0.004069218056990615</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3360,7 +3360,7 @@
         <v>55</v>
       </c>
       <c r="C248">
-        <v>-0.003930792525896413</v>
+        <v>-0.00392930677290835</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3371,7 +3371,7 @@
         <v>23</v>
       </c>
       <c r="C249">
-        <v>-0.003886731328600401</v>
+        <v>-0.003884361054766723</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3382,7 +3382,7 @@
         <v>35</v>
       </c>
       <c r="C250">
-        <v>-0.003596148445945947</v>
+        <v>-0.003588243243243242</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3393,7 +3393,7 @@
         <v>62</v>
       </c>
       <c r="C251">
-        <v>-0.003474263043052839</v>
+        <v>-0.003469258317025441</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3404,7 +3404,7 @@
         <v>34</v>
       </c>
       <c r="C252">
-        <v>-0.003464917421800947</v>
+        <v>-0.003292180094786729</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3415,7 +3415,7 @@
         <v>61</v>
       </c>
       <c r="C253">
-        <v>-0.003186164653168993</v>
+        <v>-0.003185495598591549</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3423,10 +3423,10 @@
         <v>9</v>
       </c>
       <c r="B254" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C254">
-        <v>-0.002722263342788335</v>
+        <v>-0.002923930939226519</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3434,10 +3434,10 @@
         <v>9</v>
       </c>
       <c r="B255" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C255">
-        <v>-0.002684587185082874</v>
+        <v>-0.002719422263848006</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3448,7 +3448,7 @@
         <v>31</v>
       </c>
       <c r="C256">
-        <v>-0.002533929064814802</v>
+        <v>-0.002664518518518518</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3459,7 +3459,7 @@
         <v>25</v>
       </c>
       <c r="C257">
-        <v>-0.002522707273458436</v>
+        <v>-0.002522600536193031</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -3470,7 +3470,7 @@
         <v>30</v>
       </c>
       <c r="C258">
-        <v>-0.002138056792569651</v>
+        <v>-0.00213547987616099</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -3481,7 +3481,7 @@
         <v>24</v>
       </c>
       <c r="C259">
-        <v>-0.001980365587677726</v>
+        <v>-0.00201894312796209</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3492,7 +3492,7 @@
         <v>39</v>
       </c>
       <c r="C260">
-        <v>-0.00191720995215311</v>
+        <v>-0.001916172248803828</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -3503,7 +3503,7 @@
         <v>21</v>
       </c>
       <c r="C261">
-        <v>-0.00135990277319587</v>
+        <v>-0.001359082474226796</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -3514,7 +3514,7 @@
         <v>43</v>
       </c>
       <c r="C262">
-        <v>-0.00126851414346159</v>
+        <v>-0.001267766365303906</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -3525,7 +3525,7 @@
         <v>70</v>
       </c>
       <c r="C263">
-        <v>-0.001265653787755103</v>
+        <v>-0.001260019047619045</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -3536,7 +3536,7 @@
         <v>69</v>
       </c>
       <c r="C264">
-        <v>-0.001106288067039106</v>
+        <v>-0.001104424581005586</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -3547,7 +3547,7 @@
         <v>36</v>
       </c>
       <c r="C265">
-        <v>-0.00100384570935898</v>
+        <v>-0.001003417622013341</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3558,7 +3558,7 @@
         <v>40</v>
       </c>
       <c r="C266">
-        <v>-0.0007230229921773138</v>
+        <v>-0.000721571056062581</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3569,7 +3569,7 @@
         <v>64</v>
       </c>
       <c r="C267">
-        <v>-0.0006791042177531211</v>
+        <v>-0.0006747184466019407</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3580,7 +3580,7 @@
         <v>19</v>
       </c>
       <c r="C268">
-        <v>-0.0005656593530946846</v>
+        <v>-0.0004710317204141884</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3591,7 +3591,7 @@
         <v>72</v>
       </c>
       <c r="C269">
-        <v>-0.0003379927308447921</v>
+        <v>-0.0003353634577603125</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3602,7 +3602,7 @@
         <v>59</v>
       </c>
       <c r="C270">
-        <v>-0.0002269700879120837</v>
+        <v>-0.000226791208791208</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -3613,7 +3613,7 @@
         <v>38</v>
       </c>
       <c r="C271">
-        <v>-0.0001356030399159659</v>
+        <v>-0.0001341974789915961</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3624,7 +3624,7 @@
         <v>42</v>
       </c>
       <c r="C272">
-        <v>-0.0001240079166666666</v>
+        <v>-0.0001239583333333324</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3635,7 +3635,7 @@
         <v>45</v>
       </c>
       <c r="C273">
-        <v>-2.021961818181708e-05</v>
+        <v>-2.215090909090788e-05</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -3646,7 +3646,7 @@
         <v>56</v>
       </c>
       <c r="C274">
-        <v>0.000141479352941176</v>
+        <v>0.0001411764705882348</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -3657,7 +3657,7 @@
         <v>52</v>
       </c>
       <c r="C275">
-        <v>0.0002375495973154398</v>
+        <v>0.0002375167785234856</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3668,7 +3668,7 @@
         <v>67</v>
       </c>
       <c r="C276">
-        <v>0.0006692903597122261</v>
+        <v>0.0006682302158273392</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -3679,7 +3679,7 @@
         <v>37</v>
       </c>
       <c r="C277">
-        <v>0.001303444390625</v>
+        <v>0.001301746875000004</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3687,10 +3687,10 @@
         <v>9</v>
       </c>
       <c r="B278" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C278">
-        <v>0.001478685425240053</v>
+        <v>0.00147470479704797</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -3698,10 +3698,10 @@
         <v>9</v>
       </c>
       <c r="B279" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C279">
-        <v>0.001480193302583026</v>
+        <v>0.001477400548696846</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3712,7 +3712,7 @@
         <v>28</v>
       </c>
       <c r="C280">
-        <v>0.007348183071428568</v>
+        <v>0.007341428571428569</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -3723,7 +3723,7 @@
         <v>20</v>
       </c>
       <c r="C281">
-        <v>-0.009930482865314356</v>
+        <v>-0.00993054253171124</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -3734,7 +3734,7 @@
         <v>27</v>
       </c>
       <c r="C282">
-        <v>-0.008520734859416445</v>
+        <v>-0.008520753315649847</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -3745,7 +3745,7 @@
         <v>28</v>
       </c>
       <c r="C283">
-        <v>-0.005120157794117629</v>
+        <v>-0.005120147058823519</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3756,7 +3756,7 @@
         <v>59</v>
       </c>
       <c r="C284">
-        <v>-0.00445504457564576</v>
+        <v>-0.004625977859778582</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -3767,7 +3767,7 @@
         <v>30</v>
       </c>
       <c r="C285">
-        <v>-0.00384343470457079</v>
+        <v>-0.003701371237458196</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -3778,7 +3778,7 @@
         <v>56</v>
       </c>
       <c r="C286">
-        <v>-0.003555529165048524</v>
+        <v>-0.003319223300970875</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3789,7 +3789,7 @@
         <v>52</v>
       </c>
       <c r="C287">
-        <v>-0.0031178862</v>
+        <v>-0.003117919999999987</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3800,7 +3800,7 @@
         <v>23</v>
       </c>
       <c r="C288">
-        <v>-0.00295049968217934</v>
+        <v>-0.002950488081725314</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3811,7 +3811,7 @@
         <v>73</v>
       </c>
       <c r="C289">
-        <v>-0.002016488900122041</v>
+        <v>-0.00201646496559573</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3822,7 +3822,7 @@
         <v>49</v>
       </c>
       <c r="C290">
-        <v>-0.001944778463360837</v>
+        <v>-0.001944767618290349</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -3833,7 +3833,7 @@
         <v>68</v>
       </c>
       <c r="C291">
-        <v>-0.001414016708860758</v>
+        <v>-0.001413974683544294</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -3844,7 +3844,7 @@
         <v>55</v>
       </c>
       <c r="C292">
-        <v>-0.001407146148456053</v>
+        <v>-0.001407163895486935</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -3855,7 +3855,7 @@
         <v>67</v>
       </c>
       <c r="C293">
-        <v>-0.001193928027972031</v>
+        <v>-0.001193916083916081</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3866,7 +3866,7 @@
         <v>70</v>
       </c>
       <c r="C294">
-        <v>-0.00088730762741652</v>
+        <v>-0.0008872829525483296</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3877,7 +3877,7 @@
         <v>21</v>
       </c>
       <c r="C295">
-        <v>-0.0007635501301587261</v>
+        <v>-0.0007635634920634916</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -3888,7 +3888,7 @@
         <v>66</v>
       </c>
       <c r="C296">
-        <v>-0.0006315428764044928</v>
+        <v>-0.0006315483146067426</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3899,7 +3899,7 @@
         <v>38</v>
       </c>
       <c r="C297">
-        <v>-0.0005251641553610503</v>
+        <v>-0.000525194748358862</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -3910,7 +3910,7 @@
         <v>71</v>
       </c>
       <c r="C298">
-        <v>-0.000406863761061946</v>
+        <v>-0.0004069115044247786</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3921,7 +3921,7 @@
         <v>62</v>
       </c>
       <c r="C299">
-        <v>-0.0003277077867298579</v>
+        <v>-0.0003277061611374431</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3932,7 +3932,7 @@
         <v>69</v>
       </c>
       <c r="C300">
-        <v>-0.0002173667592592587</v>
+        <v>-0.000217361111111111</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3943,7 +3943,7 @@
         <v>42</v>
       </c>
       <c r="C301">
-        <v>-2.565972093023255e-05</v>
+        <v>-2.566998892580286e-05</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -3954,7 +3954,7 @@
         <v>34</v>
       </c>
       <c r="C302">
-        <v>0.000182926831460671</v>
+        <v>0.0001959438202247196</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3965,7 +3965,7 @@
         <v>61</v>
       </c>
       <c r="C303">
-        <v>0.0002262107419712083</v>
+        <v>0.0002262181616832773</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3976,7 +3976,7 @@
         <v>72</v>
       </c>
       <c r="C304">
-        <v>0.0002849275299539156</v>
+        <v>0.0002849216589861749</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3984,10 +3984,10 @@
         <v>10</v>
       </c>
       <c r="B305" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C305">
-        <v>0.0002976895214979195</v>
+        <v>0.0002956142437877327</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -3995,10 +3995,10 @@
         <v>10</v>
       </c>
       <c r="B306" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C306">
-        <v>0.0003250304247607941</v>
+        <v>0.0002976907073509014</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -4009,7 +4009,7 @@
         <v>57</v>
       </c>
       <c r="C307">
-        <v>0.0004927367297794143</v>
+        <v>0.0004927408088235234</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -4020,7 +4020,7 @@
         <v>64</v>
       </c>
       <c r="C308">
-        <v>0.0007606895601851778</v>
+        <v>0.0007607037037037035</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -4031,7 +4031,7 @@
         <v>25</v>
       </c>
       <c r="C309">
-        <v>0.001193379799999996</v>
+        <v>0.001193371428571424</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4042,7 +4042,7 @@
         <v>35</v>
       </c>
       <c r="C310">
-        <v>0.001497261266949153</v>
+        <v>0.001497296610169483</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -4050,10 +4050,10 @@
         <v>10</v>
       </c>
       <c r="B311" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C311">
-        <v>0.002100159852459014</v>
+        <v>0.002166666666666674</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4061,10 +4061,10 @@
         <v>10</v>
       </c>
       <c r="B312" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C312">
-        <v>0.002166666666666666</v>
+        <v>0.002309098360655737</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -4075,7 +4075,7 @@
         <v>24</v>
       </c>
       <c r="C313">
-        <v>0.003060854891089095</v>
+        <v>0.003060856435643567</v>
       </c>
     </row>
     <row r="314" spans="1:3">
@@ -4086,7 +4086,7 @@
         <v>39</v>
       </c>
       <c r="C314">
-        <v>0.003091355076923073</v>
+        <v>0.003091266272189345</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4097,7 +4097,7 @@
         <v>22</v>
       </c>
       <c r="C315">
-        <v>0.00311481258536585</v>
+        <v>0.00311477073170732</v>
       </c>
     </row>
     <row r="316" spans="1:3">
@@ -4108,7 +4108,7 @@
         <v>43</v>
       </c>
       <c r="C316">
-        <v>0.00345598895191133</v>
+        <v>0.003456007059175743</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -4119,7 +4119,7 @@
         <v>60</v>
       </c>
       <c r="C317">
-        <v>0.005016479891891903</v>
+        <v>0.005016432432432432</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -4130,7 +4130,7 @@
         <v>18</v>
       </c>
       <c r="C318">
-        <v>0.005430782472933182</v>
+        <v>0.005430800070420514</v>
       </c>
     </row>
     <row r="319" spans="1:3">
@@ -4141,7 +4141,7 @@
         <v>31</v>
       </c>
       <c r="C319">
-        <v>0.006592907653947371</v>
+        <v>0.00659285657894737</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -4152,7 +4152,7 @@
         <v>37</v>
       </c>
       <c r="C320">
-        <v>0.007075368138138136</v>
+        <v>0.007075465465465462</v>
       </c>
     </row>
     <row r="321" spans="1:3">
@@ -4163,7 +4163,7 @@
         <v>74</v>
       </c>
       <c r="C321">
-        <v>0.01236927535251799</v>
+        <v>0.0123691726618705</v>
       </c>
     </row>
     <row r="322" spans="1:3">
@@ -4174,7 +4174,7 @@
         <v>59</v>
       </c>
       <c r="C322">
-        <v>-0.01190222787619048</v>
+        <v>-0.01190232640692641</v>
       </c>
     </row>
     <row r="323" spans="1:3">
@@ -4185,7 +4185,7 @@
         <v>74</v>
       </c>
       <c r="C323">
-        <v>-0.01185712973314607</v>
+        <v>-0.01185717696629213</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -4196,7 +4196,7 @@
         <v>52</v>
       </c>
       <c r="C324">
-        <v>-0.01117304624817515</v>
+        <v>-0.01117298394160584</v>
       </c>
     </row>
     <row r="325" spans="1:3">
@@ -4207,7 +4207,7 @@
         <v>21</v>
       </c>
       <c r="C325">
-        <v>-0.009503756955518947</v>
+        <v>-0.009503644151565073</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -4218,7 +4218,7 @@
         <v>20</v>
       </c>
       <c r="C326">
-        <v>-0.008966355568326683</v>
+        <v>-0.008966409441852997</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4229,7 +4229,7 @@
         <v>24</v>
       </c>
       <c r="C327">
-        <v>-0.007661798067441866</v>
+        <v>-0.007661725581395349</v>
       </c>
     </row>
     <row r="328" spans="1:3">
@@ -4240,7 +4240,7 @@
         <v>28</v>
       </c>
       <c r="C328">
-        <v>-0.007627057645320195</v>
+        <v>-0.007364532019704432</v>
       </c>
     </row>
     <row r="329" spans="1:3">
@@ -4251,7 +4251,7 @@
         <v>30</v>
       </c>
       <c r="C329">
-        <v>-0.005785787257941524</v>
+        <v>-0.005785860228716643</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4262,7 +4262,7 @@
         <v>27</v>
       </c>
       <c r="C330">
-        <v>-0.004913916823529413</v>
+        <v>-0.004913882352941178</v>
       </c>
     </row>
     <row r="331" spans="1:3">
@@ -4273,7 +4273,7 @@
         <v>60</v>
       </c>
       <c r="C331">
-        <v>-0.004474377533101041</v>
+        <v>-0.004474379790940767</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -4284,7 +4284,7 @@
         <v>66</v>
       </c>
       <c r="C332">
-        <v>-0.004032258049155146</v>
+        <v>-0.004032296466973887</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -4295,7 +4295,7 @@
         <v>31</v>
       </c>
       <c r="C333">
-        <v>-0.003941359598784175</v>
+        <v>-0.003941428571428571</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4306,7 +4306,7 @@
         <v>25</v>
       </c>
       <c r="C334">
-        <v>-0.003518970155555558</v>
+        <v>-0.003518977777777773</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4317,7 +4317,7 @@
         <v>35</v>
       </c>
       <c r="C335">
-        <v>-0.003487804799999981</v>
+        <v>-0.003487799999999999</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -4328,7 +4328,7 @@
         <v>37</v>
       </c>
       <c r="C336">
-        <v>-0.003295406421836226</v>
+        <v>-0.003295414392059551</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -4339,7 +4339,7 @@
         <v>19</v>
       </c>
       <c r="C337">
-        <v>-0.003221577701273081</v>
+        <v>-0.003221530109669718</v>
       </c>
     </row>
     <row r="338" spans="1:3">
@@ -4350,7 +4350,7 @@
         <v>70</v>
       </c>
       <c r="C338">
-        <v>-0.003080924607645846</v>
+        <v>-0.003080981891348087</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -4361,7 +4361,7 @@
         <v>73</v>
       </c>
       <c r="C339">
-        <v>-0.002970102099739807</v>
+        <v>-0.002970172209730116</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4372,7 +4372,7 @@
         <v>62</v>
       </c>
       <c r="C340">
-        <v>-0.002924257951807217</v>
+        <v>-0.00292428313253012</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -4383,7 +4383,7 @@
         <v>18</v>
       </c>
       <c r="C341">
-        <v>-0.002916296336605863</v>
+        <v>-0.002916290222087486</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -4394,7 +4394,7 @@
         <v>68</v>
       </c>
       <c r="C342">
-        <v>-0.002851683345070422</v>
+        <v>-0.002851598591549275</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4402,10 +4402,10 @@
         <v>11</v>
       </c>
       <c r="B343" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C343">
-        <v>-0.002547176982300886</v>
+        <v>-0.002569613122171945</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -4413,10 +4413,10 @@
         <v>11</v>
       </c>
       <c r="B344" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C344">
-        <v>-0.0023587933030853</v>
+        <v>-0.002547102402022733</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4424,10 +4424,10 @@
         <v>11</v>
       </c>
       <c r="B345" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C345">
-        <v>-0.002231409842682926</v>
+        <v>-0.002358784029038113</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -4435,10 +4435,10 @@
         <v>11</v>
       </c>
       <c r="B346" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C346">
-        <v>-0.002205192545248869</v>
+        <v>-0.00223141707317073</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4446,10 +4446,10 @@
         <v>11</v>
       </c>
       <c r="B347" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C347">
-        <v>-0.001681691607758621</v>
+        <v>-0.001659333333333333</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4457,10 +4457,10 @@
         <v>11</v>
       </c>
       <c r="B348" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="C348">
-        <v>-0.001659138641975304</v>
+        <v>-0.001639524793388434</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -4468,10 +4468,10 @@
         <v>11</v>
       </c>
       <c r="B349" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C349">
-        <v>-0.001639538404958677</v>
+        <v>-0.001443202586206897</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4482,7 +4482,7 @@
         <v>49</v>
       </c>
       <c r="C350">
-        <v>-0.001322482280167439</v>
+        <v>-0.001322464510006234</v>
       </c>
     </row>
     <row r="351" spans="1:3">
@@ -4493,7 +4493,7 @@
         <v>64</v>
       </c>
       <c r="C351">
-        <v>-0.0009396385035971218</v>
+        <v>-0.0009396115107913663</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4504,7 +4504,7 @@
         <v>22</v>
       </c>
       <c r="C352">
-        <v>-0.0008751477488986804</v>
+        <v>-0.0008751409691629925</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4515,7 +4515,7 @@
         <v>45</v>
       </c>
       <c r="C353">
-        <v>-0.0007012195277777787</v>
+        <v>-0.0007012160493827169</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4526,7 +4526,7 @@
         <v>38</v>
       </c>
       <c r="C354">
-        <v>-0.0003236398004807694</v>
+        <v>-0.0003236586538461533</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4537,7 +4537,7 @@
         <v>67</v>
       </c>
       <c r="C355">
-        <v>-0.0002824605000000001</v>
+        <v>-0.0002825735294117648</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4548,7 +4548,7 @@
         <v>34</v>
       </c>
       <c r="C356">
-        <v>-0.0002710027111111101</v>
+        <v>-0.0002710000000000018</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -4559,7 +4559,7 @@
         <v>43</v>
       </c>
       <c r="C357">
-        <v>-0.0001661984237036537</v>
+        <v>-0.0001661992944815512</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -4570,7 +4570,7 @@
         <v>71</v>
       </c>
       <c r="C358">
-        <v>-0.0001426829399999995</v>
+        <v>-0.0001426800000000004</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4581,7 +4581,7 @@
         <v>69</v>
       </c>
       <c r="C359">
-        <v>0.0002643855106796105</v>
+        <v>0.0002643786407766985</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4592,7 +4592,7 @@
         <v>36</v>
       </c>
       <c r="C360">
-        <v>0.0003967898161764692</v>
+        <v>0.0003967941176470563</v>
       </c>
     </row>
     <row r="361" spans="1:3">
@@ -4603,7 +4603,7 @@
         <v>23</v>
       </c>
       <c r="C361">
-        <v>0.00256473489519112</v>
+        <v>0.002656197287299628</v>
       </c>
     </row>
     <row r="362" spans="1:3">
@@ -4614,7 +4614,7 @@
         <v>39</v>
       </c>
       <c r="C362">
-        <v>0.005282113884444442</v>
+        <v>0.005281955555555558</v>
       </c>
     </row>
     <row r="363" spans="1:3">
@@ -4625,7 +4625,7 @@
         <v>74</v>
       </c>
       <c r="C363">
-        <v>-0.008082814820181113</v>
+        <v>-0.008081430789133228</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4636,7 +4636,7 @@
         <v>25</v>
       </c>
       <c r="C364">
-        <v>-0.003235441789156628</v>
+        <v>-0.003282641566265061</v>
       </c>
     </row>
     <row r="365" spans="1:3">
@@ -4647,7 +4647,7 @@
         <v>43</v>
       </c>
       <c r="C365">
-        <v>-0.002976984178232014</v>
+        <v>-0.002973271990244194</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -4658,7 +4658,7 @@
         <v>27</v>
       </c>
       <c r="C366">
-        <v>-0.002590167570370357</v>
+        <v>-0.002588442592592595</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -4669,7 +4669,7 @@
         <v>23</v>
       </c>
       <c r="C367">
-        <v>-0.002304444475428572</v>
+        <v>-0.002304475428571422</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -4680,7 +4680,7 @@
         <v>75</v>
       </c>
       <c r="C368">
-        <v>-0.002164317335863378</v>
+        <v>-0.002162407969639465</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4691,7 +4691,7 @@
         <v>39</v>
       </c>
       <c r="C369">
-        <v>-0.00185083094295302</v>
+        <v>-0.001846651006711409</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4702,7 +4702,7 @@
         <v>76</v>
       </c>
       <c r="C370">
-        <v>-0.001808537494219654</v>
+        <v>-0.001807112716763002</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -4713,7 +4713,7 @@
         <v>20</v>
       </c>
       <c r="C371">
-        <v>-0.001795321044568357</v>
+        <v>-0.001794375480625421</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4724,7 +4724,7 @@
         <v>22</v>
       </c>
       <c r="C372">
-        <v>-0.001170452889908258</v>
+        <v>-0.001170091743119265</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -4735,7 +4735,7 @@
         <v>19</v>
       </c>
       <c r="C373">
-        <v>-0.001093881927926281</v>
+        <v>-0.001038434091953429</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4746,7 +4746,7 @@
         <v>73</v>
       </c>
       <c r="C374">
-        <v>-0.0009468981656346274</v>
+        <v>-0.0009468629674466304</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -4757,7 +4757,7 @@
         <v>18</v>
       </c>
       <c r="C375">
-        <v>-0.0007305605944044032</v>
+        <v>-0.000730410133643459</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4768,7 +4768,7 @@
         <v>69</v>
       </c>
       <c r="C376">
-        <v>-0.0001429738676470579</v>
+        <v>-0.0001429852941176472</v>
       </c>
     </row>
     <row r="377" spans="1:3">
@@ -4790,7 +4790,7 @@
         <v>77</v>
       </c>
       <c r="C378">
-        <v>0.0002655828959107808</v>
+        <v>0.0002649677819083024</v>
       </c>
     </row>
     <row r="379" spans="1:3">
@@ -4801,7 +4801,7 @@
         <v>38</v>
       </c>
       <c r="C379">
-        <v>0.0003538106870229007</v>
+        <v>0.0003501679389312977</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -4809,10 +4809,10 @@
         <v>12</v>
       </c>
       <c r="B380" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C380">
-        <v>0.0004141580076628387</v>
+        <v>0.0003943440000000004</v>
       </c>
     </row>
     <row r="381" spans="1:3">
@@ -4820,10 +4820,10 @@
         <v>12</v>
       </c>
       <c r="B381" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C381">
-        <v>0.000431428559999998</v>
+        <v>0.0004135785440613062</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4834,7 +4834,7 @@
         <v>64</v>
       </c>
       <c r="C382">
-        <v>0.0005581586912000002</v>
+        <v>0.000554599999999999</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4845,7 +4845,7 @@
         <v>79</v>
       </c>
       <c r="C383">
-        <v>0.0006292351315789471</v>
+        <v>0.0006279941520467834</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -4856,7 +4856,7 @@
         <v>49</v>
       </c>
       <c r="C384">
-        <v>0.0007044875555555524</v>
+        <v>0.0007405925925925959</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -4867,7 +4867,7 @@
         <v>66</v>
       </c>
       <c r="C385">
-        <v>0.000880845569506727</v>
+        <v>0.000876349775784753</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -4878,7 +4878,7 @@
         <v>55</v>
       </c>
       <c r="C386">
-        <v>0.0009119278834951453</v>
+        <v>0.0009099611650485432</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -4889,7 +4889,7 @@
         <v>57</v>
       </c>
       <c r="C387">
-        <v>0.000944075302325583</v>
+        <v>0.0009430232558139438</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4900,7 +4900,7 @@
         <v>28</v>
       </c>
       <c r="C388">
-        <v>0.001607521987261141</v>
+        <v>0.001606369426751587</v>
       </c>
     </row>
     <row r="389" spans="1:3">
@@ -4911,7 +4911,7 @@
         <v>70</v>
       </c>
       <c r="C389">
-        <v>0.001669040871794872</v>
+        <v>0.001666099715099715</v>
       </c>
     </row>
     <row r="390" spans="1:3">
@@ -4922,7 +4922,7 @@
         <v>60</v>
       </c>
       <c r="C390">
-        <v>0.002187500013461539</v>
+        <v>0.002187513461538465</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4933,7 +4933,7 @@
         <v>34</v>
       </c>
       <c r="C391">
-        <v>0.002417625233146059</v>
+        <v>0.002414969101123593</v>
       </c>
     </row>
     <row r="392" spans="1:3">
@@ -4944,7 +4944,7 @@
         <v>52</v>
       </c>
       <c r="C392">
-        <v>0.00254744127087577</v>
+        <v>0.00254644399185336</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -4955,7 +4955,7 @@
         <v>31</v>
       </c>
       <c r="C393">
-        <v>0.002611071483146054</v>
+        <v>0.002847749063670395</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4966,7 +4966,7 @@
         <v>44</v>
       </c>
       <c r="C394">
-        <v>0.002863636363636367</v>
+        <v>0.002863636363636362</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4977,7 +4977,7 @@
         <v>30</v>
       </c>
       <c r="C395">
-        <v>0.004531128160744502</v>
+        <v>0.00452891201353638</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4988,7 +4988,7 @@
         <v>26</v>
       </c>
       <c r="C396">
-        <v>0.005397506626609437</v>
+        <v>0.005395891273247492</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -4999,7 +4999,7 @@
         <v>80</v>
       </c>
       <c r="C397">
-        <v>0.008096577569620249</v>
+        <v>0.008096556962025315</v>
       </c>
     </row>
     <row r="398" spans="1:3">
@@ -5010,7 +5010,7 @@
         <v>59</v>
       </c>
       <c r="C398">
-        <v>0.008592266871859294</v>
+        <v>0.008583723618090459</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -5021,7 +5021,7 @@
         <v>60</v>
       </c>
       <c r="C399">
-        <v>-0.007709488648798508</v>
+        <v>-0.007709536044362293</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -5032,7 +5032,7 @@
         <v>24</v>
       </c>
       <c r="C400">
-        <v>-0.006013949665738158</v>
+        <v>-0.006011353760445685</v>
       </c>
     </row>
     <row r="401" spans="1:3">
@@ -5043,7 +5043,7 @@
         <v>27</v>
       </c>
       <c r="C401">
-        <v>-0.005908527442043223</v>
+        <v>-0.005907515717092325</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -5054,7 +5054,7 @@
         <v>49</v>
       </c>
       <c r="C402">
-        <v>-0.005670140967871468</v>
+        <v>-0.005382726907630504</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -5065,7 +5065,7 @@
         <v>30</v>
       </c>
       <c r="C403">
-        <v>-0.005111420329870131</v>
+        <v>-0.00509958181818182</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -5076,7 +5076,7 @@
         <v>20</v>
       </c>
       <c r="C404">
-        <v>-0.004415993940835641</v>
+        <v>-0.004413668114680297</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -5087,7 +5087,7 @@
         <v>18</v>
       </c>
       <c r="C405">
-        <v>-0.004287560031025358</v>
+        <v>-0.004286676997434683</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -5098,7 +5098,7 @@
         <v>75</v>
       </c>
       <c r="C406">
-        <v>-0.003778195481781378</v>
+        <v>-0.003774862348178135</v>
       </c>
     </row>
     <row r="407" spans="1:3">
@@ -5109,7 +5109,7 @@
         <v>52</v>
       </c>
       <c r="C407">
-        <v>-0.0035873623250478</v>
+        <v>-0.003585957934990433</v>
       </c>
     </row>
     <row r="408" spans="1:3">
@@ -5120,7 +5120,7 @@
         <v>55</v>
       </c>
       <c r="C408">
-        <v>-0.003434252209821429</v>
+        <v>-0.003427479166666667</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -5128,10 +5128,10 @@
         <v>13</v>
       </c>
       <c r="B409" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C409">
-        <v>-0.003365079359999987</v>
+        <v>-0.003400482728932641</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -5139,10 +5139,10 @@
         <v>13</v>
       </c>
       <c r="B410" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C410">
-        <v>-0.003234703924094585</v>
+        <v>-0.003362666666666657</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -5153,7 +5153,7 @@
         <v>34</v>
       </c>
       <c r="C411">
-        <v>-0.003173803526448365</v>
+        <v>-0.003173803526448362</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -5164,7 +5164,7 @@
         <v>77</v>
       </c>
       <c r="C412">
-        <v>-0.002289265386308068</v>
+        <v>-0.002286410757946209</v>
       </c>
     </row>
     <row r="413" spans="1:3">
@@ -5172,10 +5172,10 @@
         <v>13</v>
       </c>
       <c r="B413" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C413">
-        <v>-0.001643811049038461</v>
+        <v>-0.001761261853448266</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -5183,10 +5183,10 @@
         <v>13</v>
       </c>
       <c r="B414" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C414">
-        <v>-0.001614882665948266</v>
+        <v>-0.001643303846153849</v>
       </c>
     </row>
     <row r="415" spans="1:3">
@@ -5197,7 +5197,7 @@
         <v>57</v>
       </c>
       <c r="C415">
-        <v>-0.001230158727272726</v>
+        <v>-0.001228787878787875</v>
       </c>
     </row>
     <row r="416" spans="1:3">
@@ -5208,7 +5208,7 @@
         <v>76</v>
       </c>
       <c r="C416">
-        <v>-0.001178678675675678</v>
+        <v>-0.001178675675675674</v>
       </c>
     </row>
     <row r="417" spans="1:3">
@@ -5216,10 +5216,10 @@
         <v>13</v>
       </c>
       <c r="B417" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C417">
-        <v>-0.0009014674716981055</v>
+        <v>-0.0008215500000000026</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5227,10 +5227,10 @@
         <v>13</v>
       </c>
       <c r="B418" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C418">
-        <v>-0.0008988094999999957</v>
+        <v>-0.0008022953736654778</v>
       </c>
     </row>
     <row r="419" spans="1:3">
@@ -5238,10 +5238,10 @@
         <v>13</v>
       </c>
       <c r="B419" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C419">
-        <v>-0.0008028300355871842</v>
+        <v>-0.0007859622641509432</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5252,7 +5252,7 @@
         <v>70</v>
       </c>
       <c r="C420">
-        <v>-0.0007417109566115699</v>
+        <v>-0.0007404039256198347</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5263,7 +5263,7 @@
         <v>73</v>
       </c>
       <c r="C421">
-        <v>-0.0006122239762985168</v>
+        <v>-0.000610841323173845</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5274,7 +5274,7 @@
         <v>38</v>
       </c>
       <c r="C422">
-        <v>-0.0005123636054421768</v>
+        <v>-0.0005070884353741496</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5285,7 +5285,7 @@
         <v>26</v>
       </c>
       <c r="C423">
-        <v>-0.0003960061470967775</v>
+        <v>-0.000395659354838713</v>
       </c>
     </row>
     <row r="424" spans="1:3">
@@ -5296,7 +5296,7 @@
         <v>69</v>
       </c>
       <c r="C424">
-        <v>-0.0002589936454918014</v>
+        <v>-0.0002590143442622953</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5307,7 +5307,7 @@
         <v>66</v>
       </c>
       <c r="C425">
-        <v>-0.0002186588816326537</v>
+        <v>-0.0002175428571428565</v>
       </c>
     </row>
     <row r="426" spans="1:3">
@@ -5318,7 +5318,7 @@
         <v>74</v>
       </c>
       <c r="C426">
-        <v>7.532851486698074e-05</v>
+        <v>7.526917057903066e-05</v>
       </c>
     </row>
     <row r="427" spans="1:3">
@@ -5329,7 +5329,7 @@
         <v>78</v>
       </c>
       <c r="C427">
-        <v>0.0008668014528301854</v>
+        <v>0.0008655886792452859</v>
       </c>
     </row>
     <row r="428" spans="1:3">
@@ -5340,7 +5340,7 @@
         <v>44</v>
       </c>
       <c r="C428">
-        <v>0.001320468479032249</v>
+        <v>0.001319017741935481</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5351,7 +5351,7 @@
         <v>39</v>
       </c>
       <c r="C429">
-        <v>0.001746186163424123</v>
+        <v>0.001998412451361869</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5362,7 +5362,7 @@
         <v>43</v>
       </c>
       <c r="C430">
-        <v>0.00239339997876641</v>
+        <v>0.002392229381402418</v>
       </c>
     </row>
     <row r="431" spans="1:3">
@@ -5373,7 +5373,7 @@
         <v>23</v>
       </c>
       <c r="C431">
-        <v>0.002802006589680592</v>
+        <v>0.002802044226044219</v>
       </c>
     </row>
     <row r="432" spans="1:3">
@@ -5384,7 +5384,7 @@
         <v>64</v>
       </c>
       <c r="C432">
-        <v>0.003855355713450292</v>
+        <v>0.003830774853801169</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -5395,7 +5395,7 @@
         <v>25</v>
       </c>
       <c r="C433">
-        <v>0.005107946700964634</v>
+        <v>0.005187807073954988</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5406,7 +5406,7 @@
         <v>59</v>
       </c>
       <c r="C434">
-        <v>0.01314125033742332</v>
+        <v>0.01312818404907975</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -5417,7 +5417,7 @@
         <v>18</v>
       </c>
       <c r="C435">
-        <v>-0.01639144923898488</v>
+        <v>-0.01638503227123775</v>
       </c>
     </row>
     <row r="436" spans="1:3">
@@ -5428,7 +5428,7 @@
         <v>27</v>
       </c>
       <c r="C436">
-        <v>-0.01319567208098985</v>
+        <v>-0.0138659842519685</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -5439,7 +5439,7 @@
         <v>59</v>
       </c>
       <c r="C437">
-        <v>-0.01140972219545455</v>
+        <v>-0.01139700757575755</v>
       </c>
     </row>
     <row r="438" spans="1:3">
@@ -5450,7 +5450,7 @@
         <v>25</v>
       </c>
       <c r="C438">
-        <v>-0.008249687606413997</v>
+        <v>-0.008247218658892115</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5461,7 +5461,7 @@
         <v>80</v>
       </c>
       <c r="C439">
-        <v>-0.007095410608695653</v>
+        <v>-0.006861369565217391</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -5472,7 +5472,7 @@
         <v>60</v>
       </c>
       <c r="C440">
-        <v>-0.006537356362068954</v>
+        <v>-0.006537396551724138</v>
       </c>
     </row>
     <row r="441" spans="1:3">
@@ -5483,7 +5483,7 @@
         <v>28</v>
       </c>
       <c r="C441">
-        <v>-0.005864347086838514</v>
+        <v>-0.005860142469470807</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5494,7 +5494,7 @@
         <v>75</v>
       </c>
       <c r="C442">
-        <v>-0.005822285431818182</v>
+        <v>-0.005822363636363619</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5505,7 +5505,7 @@
         <v>78</v>
       </c>
       <c r="C443">
-        <v>-0.005633324621572212</v>
+        <v>-0.005630413162705647</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -5513,10 +5513,10 @@
         <v>14</v>
       </c>
       <c r="B444" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C444">
-        <v>-0.004800015712871288</v>
+        <v>-0.004806464788732367</v>
       </c>
     </row>
     <row r="445" spans="1:3">
@@ -5524,10 +5524,10 @@
         <v>14</v>
       </c>
       <c r="B445" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C445">
-        <v>-0.004626540200657874</v>
+        <v>-0.004798534653465349</v>
       </c>
     </row>
     <row r="446" spans="1:3">
@@ -5535,10 +5535,10 @@
         <v>14</v>
       </c>
       <c r="B446" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C446">
-        <v>-0.004589603102730827</v>
+        <v>-0.004621457236842104</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5546,10 +5546,10 @@
         <v>14</v>
       </c>
       <c r="B447" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C447">
-        <v>-0.004406997549295748</v>
+        <v>-0.00458558387516255</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -5560,7 +5560,7 @@
         <v>77</v>
       </c>
       <c r="C448">
-        <v>-0.003686186189189186</v>
+        <v>-0.003677648648648647</v>
       </c>
     </row>
     <row r="449" spans="1:3">
@@ -5571,7 +5571,7 @@
         <v>73</v>
       </c>
       <c r="C449">
-        <v>-0.003247780509758609</v>
+        <v>-0.003247659782954917</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -5582,7 +5582,7 @@
         <v>34</v>
       </c>
       <c r="C450">
-        <v>-0.003238607337243405</v>
+        <v>-0.003234568914956011</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -5593,7 +5593,7 @@
         <v>43</v>
       </c>
       <c r="C451">
-        <v>-0.003041017127127107</v>
+        <v>-0.002779618618618618</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5615,7 +5615,7 @@
         <v>22</v>
       </c>
       <c r="C453">
-        <v>-0.002749596289825282</v>
+        <v>-0.002745749229188078</v>
       </c>
     </row>
     <row r="454" spans="1:3">
@@ -5626,7 +5626,7 @@
         <v>66</v>
       </c>
       <c r="C454">
-        <v>-0.002278840297071129</v>
+        <v>-0.002657966527196652</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5637,7 +5637,7 @@
         <v>64</v>
       </c>
       <c r="C455">
-        <v>-0.002068829904424779</v>
+        <v>-0.001760877876106193</v>
       </c>
     </row>
     <row r="456" spans="1:3">
@@ -5648,7 +5648,7 @@
         <v>74</v>
       </c>
       <c r="C456">
-        <v>-0.001703559023437495</v>
+        <v>-0.0017035546875</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5659,7 +5659,7 @@
         <v>44</v>
       </c>
       <c r="C457">
-        <v>-0.001634511113808801</v>
+        <v>-0.001633711684370259</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5670,7 +5670,7 @@
         <v>39</v>
       </c>
       <c r="C458">
-        <v>-0.00130039683</v>
+        <v>-0.001297460000000002</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5681,7 +5681,7 @@
         <v>19</v>
       </c>
       <c r="C459">
-        <v>-0.001231134437060864</v>
+        <v>-0.001229262183133017</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5692,7 +5692,7 @@
         <v>23</v>
       </c>
       <c r="C460">
-        <v>-0.0009785813137032865</v>
+        <v>-0.0009777180067950153</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5703,7 +5703,7 @@
         <v>57</v>
       </c>
       <c r="C461">
-        <v>-0.0006605747753906251</v>
+        <v>-0.00065991796875</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -5714,7 +5714,7 @@
         <v>79</v>
       </c>
       <c r="C462">
-        <v>-0.0005408626093294453</v>
+        <v>-0.000539795918367347</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5725,7 +5725,7 @@
         <v>69</v>
       </c>
       <c r="C463">
-        <v>-0.0003341030214105769</v>
+        <v>-0.0003341297229219143</v>
       </c>
     </row>
     <row r="464" spans="1:3">
@@ -5736,7 +5736,7 @@
         <v>55</v>
       </c>
       <c r="C464">
-        <v>-0.0003129533933518004</v>
+        <v>-0.0003097313019390581</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5747,7 +5747,7 @@
         <v>38</v>
       </c>
       <c r="C465">
-        <v>-0.0001092089752066117</v>
+        <v>-0.0001090165289256195</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5758,7 +5758,7 @@
         <v>52</v>
       </c>
       <c r="C466">
-        <v>-3.796992526315962e-05</v>
+        <v>-3.796210526316362e-05</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5769,7 +5769,7 @@
         <v>70</v>
       </c>
       <c r="C467">
-        <v>0.0003011436248447212</v>
+        <v>0.0002992236024844727</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -5780,7 +5780,7 @@
         <v>24</v>
       </c>
       <c r="C468">
-        <v>0.002318308867924528</v>
+        <v>0.002317308176100629</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -5791,7 +5791,7 @@
         <v>20</v>
       </c>
       <c r="C469">
-        <v>0.002395156611751642</v>
+        <v>0.002393269691985544</v>
       </c>
     </row>
     <row r="470" spans="1:3">
@@ -5802,7 +5802,7 @@
         <v>76</v>
       </c>
       <c r="C470">
-        <v>0.003313675810185186</v>
+        <v>0.003311930555555556</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -5813,7 +5813,7 @@
         <v>24</v>
       </c>
       <c r="C471">
-        <v>-0.00507554024096386</v>
+        <v>-0.00507334939759036</v>
       </c>
     </row>
     <row r="472" spans="1:3">
@@ -5824,7 +5824,7 @@
         <v>80</v>
       </c>
       <c r="C472">
-        <v>-0.00400895405128205</v>
+        <v>-0.004007384615384604</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5846,7 +5846,7 @@
         <v>76</v>
       </c>
       <c r="C474">
-        <v>-0.001534221218884118</v>
+        <v>-0.001533958512160229</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -5857,7 +5857,7 @@
         <v>77</v>
       </c>
       <c r="C475">
-        <v>-0.001298941800000002</v>
+        <v>-0.001397933333333335</v>
       </c>
     </row>
     <row r="476" spans="1:3">
@@ -5868,7 +5868,7 @@
         <v>43</v>
       </c>
       <c r="C476">
-        <v>-0.0009746127108433681</v>
+        <v>-0.0009737891566265008</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5879,7 +5879,7 @@
         <v>18</v>
       </c>
       <c r="C477">
-        <v>-0.0004158295290722026</v>
+        <v>-0.000436390287607262</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5890,7 +5890,7 @@
         <v>38</v>
       </c>
       <c r="C478">
-        <v>-0.0003563581779661021</v>
+        <v>-0.000355655367231638</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5901,7 +5901,7 @@
         <v>69</v>
       </c>
       <c r="C479">
-        <v>9.608043117745209e-06</v>
+        <v>9.509121061359825e-06</v>
       </c>
     </row>
     <row r="480" spans="1:3">
@@ -5912,7 +5912,7 @@
         <v>31</v>
       </c>
       <c r="C480">
-        <v>4.865706267030045e-05</v>
+        <v>4.840871934604971e-05</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5923,7 +5923,7 @@
         <v>25</v>
       </c>
       <c r="C481">
-        <v>0.0003155178181818118</v>
+        <v>0.0003153076923076866</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5934,7 +5934,7 @@
         <v>52</v>
       </c>
       <c r="C482">
-        <v>0.0003216836427818717</v>
+        <v>0.0003216828240252955</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5945,7 +5945,7 @@
         <v>55</v>
       </c>
       <c r="C483">
-        <v>0.0003967021677018629</v>
+        <v>0.0003960031055900626</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5956,7 +5956,7 @@
         <v>45</v>
       </c>
       <c r="C484">
-        <v>0.0004306476455696206</v>
+        <v>0.0004305147679324899</v>
       </c>
     </row>
     <row r="485" spans="1:3">
@@ -5967,7 +5967,7 @@
         <v>44</v>
       </c>
       <c r="C485">
-        <v>0.0005049890494037453</v>
+        <v>0.0005038466780238506</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -5978,7 +5978,7 @@
         <v>39</v>
       </c>
       <c r="C486">
-        <v>0.0006611316642066373</v>
+        <v>0.0006611845018450184</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -5989,7 +5989,7 @@
         <v>57</v>
       </c>
       <c r="C487">
-        <v>0.0009712360735586481</v>
+        <v>0.0009702703777335983</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -6000,7 +6000,7 @@
         <v>30</v>
       </c>
       <c r="C488">
-        <v>0.001004941201923071</v>
+        <v>0.001004903846153847</v>
       </c>
     </row>
     <row r="489" spans="1:3">
@@ -6011,7 +6011,7 @@
         <v>66</v>
       </c>
       <c r="C489">
-        <v>0.001114733818820224</v>
+        <v>0.001112216292134834</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -6019,10 +6019,10 @@
         <v>15</v>
       </c>
       <c r="B490" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C490">
-        <v>0.001717299081677706</v>
+        <v>0.001708333333333334</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -6030,10 +6030,10 @@
         <v>15</v>
       </c>
       <c r="B491" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C491">
-        <v>0.001719295163120567</v>
+        <v>0.001716459161147905</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -6044,7 +6044,7 @@
         <v>23</v>
       </c>
       <c r="C492">
-        <v>0.001995226993006989</v>
+        <v>0.001994195804195799</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -6055,7 +6055,7 @@
         <v>75</v>
       </c>
       <c r="C493">
-        <v>0.002349753691034479</v>
+        <v>0.002234035862068969</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -6066,7 +6066,7 @@
         <v>28</v>
       </c>
       <c r="C494">
-        <v>0.002449074016666656</v>
+        <v>0.002267883333333334</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -6077,7 +6077,7 @@
         <v>26</v>
       </c>
       <c r="C495">
-        <v>0.002776757388571428</v>
+        <v>0.002774325714285713</v>
       </c>
     </row>
     <row r="496" spans="1:3">
@@ -6088,7 +6088,7 @@
         <v>19</v>
       </c>
       <c r="C496">
-        <v>0.002801286472395722</v>
+        <v>0.002797793372879336</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -6099,7 +6099,7 @@
         <v>73</v>
       </c>
       <c r="C497">
-        <v>0.00318344809708274</v>
+        <v>0.003176582481709364</v>
       </c>
     </row>
     <row r="498" spans="1:3">
@@ -6110,7 +6110,7 @@
         <v>79</v>
       </c>
       <c r="C498">
-        <v>0.003229260314465408</v>
+        <v>0.003224742138364779</v>
       </c>
     </row>
     <row r="499" spans="1:3">
@@ -6121,7 +6121,7 @@
         <v>27</v>
       </c>
       <c r="C499">
-        <v>0.004217011168521466</v>
+        <v>0.004294015898251187</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -6132,7 +6132,7 @@
         <v>59</v>
       </c>
       <c r="C500">
-        <v>0.006130429774499471</v>
+        <v>0.006130512118018947</v>
       </c>
     </row>
     <row r="501" spans="1:3">
@@ -6143,7 +6143,7 @@
         <v>49</v>
       </c>
       <c r="C501">
-        <v>0.006422473943902437</v>
+        <v>0.006421151219512192</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -6154,7 +6154,7 @@
         <v>78</v>
       </c>
       <c r="C502">
-        <v>0.006613515553530753</v>
+        <v>0.006607681093394079</v>
       </c>
     </row>
     <row r="503" spans="1:3">
@@ -6165,7 +6165,7 @@
         <v>22</v>
       </c>
       <c r="C503">
-        <v>0.009335975787185353</v>
+        <v>0.009325572082379838</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -6176,7 +6176,7 @@
         <v>20</v>
       </c>
       <c r="C504">
-        <v>0.01327663500939406</v>
+        <v>0.01286320636313951</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -6187,7 +6187,7 @@
         <v>60</v>
       </c>
       <c r="C505">
-        <v>0.01540032689215683</v>
+        <v>0.01540042156862746</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -6198,7 +6198,7 @@
         <v>74</v>
       </c>
       <c r="C506">
-        <v>0.01964530922113822</v>
+        <v>0.0202546796747967</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -6209,7 +6209,7 @@
         <v>24</v>
       </c>
       <c r="C507">
-        <v>-0.02098506396</v>
+        <v>-0.02096472</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -6220,7 +6220,7 @@
         <v>60</v>
       </c>
       <c r="C508">
-        <v>-0.01850893916221374</v>
+        <v>-0.01850901526717557</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -6231,7 +6231,7 @@
         <v>81</v>
       </c>
       <c r="C509">
-        <v>-0.01840764321976281</v>
+        <v>-0.01838981343873517</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -6242,7 +6242,7 @@
         <v>27</v>
       </c>
       <c r="C510">
-        <v>-0.01748801604046238</v>
+        <v>-0.01747126011560689</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -6253,7 +6253,7 @@
         <v>76</v>
       </c>
       <c r="C511">
-        <v>-0.01739885906804733</v>
+        <v>-0.01738209467455621</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -6264,7 +6264,7 @@
         <v>25</v>
       </c>
       <c r="C512">
-        <v>-0.01645514771874996</v>
+        <v>-0.01643931249999996</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -6275,7 +6275,7 @@
         <v>52</v>
       </c>
       <c r="C513">
-        <v>-0.01548124582217573</v>
+        <v>-0.01546636820083682</v>
       </c>
     </row>
     <row r="514" spans="1:3">
@@ -6286,7 +6286,7 @@
         <v>20</v>
       </c>
       <c r="C514">
-        <v>-0.01426323689600967</v>
+        <v>-0.01424947762998791</v>
       </c>
     </row>
     <row r="515" spans="1:3">
@@ -6297,7 +6297,7 @@
         <v>82</v>
       </c>
       <c r="C515">
-        <v>-0.01262044661366459</v>
+        <v>-0.01260825838509317</v>
       </c>
     </row>
     <row r="516" spans="1:3">
@@ -6308,7 +6308,7 @@
         <v>75</v>
       </c>
       <c r="C516">
-        <v>-0.01243474252759949</v>
+        <v>-0.01242289345314506</v>
       </c>
     </row>
     <row r="517" spans="1:3">
@@ -6319,7 +6319,7 @@
         <v>23</v>
       </c>
       <c r="C517">
-        <v>-0.01216231717647059</v>
+        <v>-0.01159783877995639</v>
       </c>
     </row>
     <row r="518" spans="1:3">
@@ -6330,7 +6330,7 @@
         <v>83</v>
       </c>
       <c r="C518">
-        <v>-0.01075488280657395</v>
+        <v>-0.0109492793931732</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -6341,7 +6341,7 @@
         <v>49</v>
       </c>
       <c r="C519">
-        <v>-0.01031636811490683</v>
+        <v>-0.01030655900621118</v>
       </c>
     </row>
     <row r="520" spans="1:3">
@@ -6352,7 +6352,7 @@
         <v>57</v>
       </c>
       <c r="C520">
-        <v>-0.0100673193875969</v>
+        <v>-0.01005768992248062</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -6363,7 +6363,7 @@
         <v>80</v>
       </c>
       <c r="C521">
-        <v>-0.009770913798095209</v>
+        <v>-0.009761584761904732</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6371,10 +6371,10 @@
         <v>16</v>
       </c>
       <c r="B522" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C522">
-        <v>-0.009206960476964775</v>
+        <v>-0.009583117977528088</v>
       </c>
     </row>
     <row r="523" spans="1:3">
@@ -6382,10 +6382,10 @@
         <v>16</v>
       </c>
       <c r="B523" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C523">
-        <v>-0.009155685266853932</v>
+        <v>-0.009198059620596206</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6396,7 +6396,7 @@
         <v>22</v>
       </c>
       <c r="C524">
-        <v>-0.00907254623999997</v>
+        <v>-0.009063839999999995</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6404,10 +6404,10 @@
         <v>16</v>
       </c>
       <c r="B525" t="s">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="C525">
-        <v>-0.007285593708208953</v>
+        <v>-0.0075488</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6415,10 +6415,10 @@
         <v>16</v>
       </c>
       <c r="B526" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C526">
-        <v>-0.007220127426336377</v>
+        <v>-0.007278897014925374</v>
       </c>
     </row>
     <row r="527" spans="1:3">
@@ -6426,10 +6426,10 @@
         <v>16</v>
       </c>
       <c r="B527" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="C527">
-        <v>-0.007110702117647058</v>
+        <v>-0.007213361147327217</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6440,7 +6440,7 @@
         <v>77</v>
       </c>
       <c r="C528">
-        <v>-0.005547652799999965</v>
+        <v>-0.005542628571428573</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6448,10 +6448,10 @@
         <v>16</v>
       </c>
       <c r="B529" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C529">
-        <v>-0.005146548937357632</v>
+        <v>-0.005104462715105143</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6459,10 +6459,10 @@
         <v>16</v>
       </c>
       <c r="B530" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="C530">
-        <v>-0.005109283049713193</v>
+        <v>-0.004894601577909271</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6470,10 +6470,10 @@
         <v>16</v>
       </c>
       <c r="B531" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="C531">
-        <v>-0.004898806498027567</v>
+        <v>-0.004838840546697037</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6484,7 +6484,7 @@
         <v>19</v>
       </c>
       <c r="C532">
-        <v>-0.004779852283464565</v>
+        <v>-0.004775433070866143</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -6495,7 +6495,7 @@
         <v>59</v>
       </c>
       <c r="C533">
-        <v>-0.004649407338666667</v>
+        <v>-0.004645034666666646</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6506,7 +6506,7 @@
         <v>48</v>
       </c>
       <c r="C534">
-        <v>-0.004183774159090909</v>
+        <v>-0.004179954545454521</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6517,7 +6517,7 @@
         <v>66</v>
       </c>
       <c r="C535">
-        <v>-0.003884915953307393</v>
+        <v>-0.003881520103761349</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -6528,7 +6528,7 @@
         <v>70</v>
       </c>
       <c r="C536">
-        <v>-0.002050572296703297</v>
+        <v>-0.002049104395604395</v>
       </c>
     </row>
     <row r="537" spans="1:3">
@@ -6539,7 +6539,7 @@
         <v>34</v>
       </c>
       <c r="C537">
-        <v>-0.002003959864864851</v>
+        <v>-0.002002162162162161</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6550,7 +6550,7 @@
         <v>30</v>
       </c>
       <c r="C538">
-        <v>-0.001943287170731707</v>
+        <v>-0.001941658536585365</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6561,7 +6561,7 @@
         <v>73</v>
       </c>
       <c r="C539">
-        <v>-0.001826099921763866</v>
+        <v>-0.001824688477951636</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -6569,10 +6569,10 @@
         <v>16</v>
       </c>
       <c r="B540" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C540">
-        <v>-0.001085550195599023</v>
+        <v>-0.001201367521367521</v>
       </c>
     </row>
     <row r="541" spans="1:3">
@@ -6580,10 +6580,10 @@
         <v>16</v>
       </c>
       <c r="B541" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C541">
-        <v>-0.0007978626923076921</v>
+        <v>-0.001084669926650366</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -6594,7 +6594,7 @@
         <v>69</v>
       </c>
       <c r="C542">
-        <v>-0.000513266452892562</v>
+        <v>-0.0005133487603305785</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -6605,7 +6605,7 @@
         <v>64</v>
       </c>
       <c r="C543">
-        <v>0.0006005028118811842</v>
+        <v>0.0005999702970297035</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -6616,7 +6616,7 @@
         <v>39</v>
       </c>
       <c r="C544">
-        <v>0.00344585689</v>
+        <v>0.002286095000000001</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -6660,7 +6660,7 @@
         <v>35</v>
       </c>
       <c r="C548">
-        <v>0.0005959932203389815</v>
+        <v>0.0005959932203389841</v>
       </c>
     </row>
     <row r="549" spans="1:3">
@@ -6704,7 +6704,7 @@
         <v>23</v>
       </c>
       <c r="C552">
-        <v>0.001521783025830255</v>
+        <v>0.001521783025830261</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -6715,7 +6715,7 @@
         <v>30</v>
       </c>
       <c r="C553">
-        <v>0.00200258379888268</v>
+        <v>0.002002583798882682</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -6759,7 +6759,7 @@
         <v>69</v>
       </c>
       <c r="C557">
-        <v>0.002909718157181572</v>
+        <v>0.002909718157181571</v>
       </c>
     </row>
     <row r="558" spans="1:3">
@@ -6770,7 +6770,7 @@
         <v>66</v>
       </c>
       <c r="C558">
-        <v>0.00328417175572519</v>
+        <v>0.003284171755725194</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6792,7 +6792,7 @@
         <v>73</v>
       </c>
       <c r="C560">
-        <v>0.003782223046874998</v>
+        <v>0.003782223046875</v>
       </c>
     </row>
     <row r="561" spans="1:3">
@@ -6825,7 +6825,7 @@
         <v>77</v>
       </c>
       <c r="C563">
-        <v>0.004142030978260873</v>
+        <v>0.00414203097826087</v>
       </c>
     </row>
     <row r="564" spans="1:3">
@@ -6847,7 +6847,7 @@
         <v>60</v>
       </c>
       <c r="C565">
-        <v>0.004838964179104471</v>
+        <v>0.004838964179104482</v>
       </c>
     </row>
     <row r="566" spans="1:3">
@@ -6968,7 +6968,7 @@
         <v>76</v>
       </c>
       <c r="C576">
-        <v>0.008105578481012629</v>
+        <v>0.008105578481012638</v>
       </c>
     </row>
     <row r="577" spans="1:3">
@@ -6979,7 +6979,7 @@
         <v>52</v>
       </c>
       <c r="C577">
-        <v>0.008200150000000005</v>
+        <v>0.008200149999999996</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -6990,7 +6990,7 @@
         <v>34</v>
       </c>
       <c r="C578">
-        <v>0.009168857142857081</v>
+        <v>0.009168857142857085</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -7012,7 +7012,7 @@
         <v>27</v>
       </c>
       <c r="C580">
-        <v>0.01111426666666663</v>
+        <v>0.01111426666666664</v>
       </c>
     </row>
     <row r="581" spans="1:3">
@@ -7034,7 +7034,7 @@
         <v>75</v>
       </c>
       <c r="C582">
-        <v>0.01814720625</v>
+        <v>0.01814720625000001</v>
       </c>
     </row>
   </sheetData>

--- a/index/contributioin.xlsx
+++ b/index/contributioin.xlsx
@@ -106,31 +106,34 @@
     <t>102260</t>
   </si>
   <si>
+    <t>016450</t>
+  </si>
+  <si>
     <t>024720</t>
   </si>
   <si>
-    <t>016450</t>
-  </si>
-  <si>
     <t>108790</t>
   </si>
   <si>
     <t>007860</t>
   </si>
   <si>
+    <t>101060</t>
+  </si>
+  <si>
     <t>003090</t>
   </si>
   <si>
-    <t>101060</t>
-  </si>
-  <si>
     <t>001940</t>
   </si>
   <si>
+    <t>084690</t>
+  </si>
+  <si>
     <t>034310</t>
   </si>
   <si>
-    <t>084690</t>
+    <t>015860</t>
   </si>
   <si>
     <t>180640</t>
@@ -140,9 +143,6 @@
   </si>
   <si>
     <t>002250</t>
-  </si>
-  <si>
-    <t>015860</t>
   </si>
   <si>
     <t>004150</t>
@@ -654,7 +654,7 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>-0.01621234353212871</v>
+        <v>-0.01620972189960542</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -665,7 +665,7 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>-0.009275392533301941</v>
+        <v>-0.009271876768587808</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -676,7 +676,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>-0.008907125556410081</v>
+        <v>-0.008903658456096065</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -687,7 +687,7 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>-0.006042654743482796</v>
+        <v>-0.006040339985934957</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -698,7 +698,7 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>-0.00504344959016394</v>
+        <v>-0.005037660439700098</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -709,7 +709,7 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>-0.004025414500723589</v>
+        <v>-0.004154309561471409</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -720,7 +720,7 @@
         <v>24</v>
       </c>
       <c r="C8">
-        <v>-0.003696143454545454</v>
+        <v>-0.003768170882846088</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -731,7 +731,7 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>-0.003604456916666662</v>
+        <v>-0.00360067319461445</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -742,7 +742,7 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>-0.00282159519906687</v>
+        <v>-0.002819906687402794</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -753,7 +753,7 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>-0.002803453072607262</v>
+        <v>-0.002801696216133243</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -764,7 +764,7 @@
         <v>28</v>
       </c>
       <c r="C12">
-        <v>-0.002698230205323194</v>
+        <v>-0.002694774073746571</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -775,7 +775,7 @@
         <v>29</v>
       </c>
       <c r="C13">
-        <v>-0.002088620092675634</v>
+        <v>-0.002088465950568359</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -786,7 +786,7 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <v>-0.002044931155446758</v>
+        <v>-0.001938133441657354</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -797,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="C15">
-        <v>-0.001939677104803493</v>
+        <v>-0.001858580740656402</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -808,7 +808,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>-0.001868770750000001</v>
+        <v>-0.001605232558139535</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -819,7 +819,7 @@
         <v>33</v>
       </c>
       <c r="C17">
-        <v>-0.001579480864406779</v>
+        <v>-0.001578892392589674</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -830,7 +830,7 @@
         <v>34</v>
       </c>
       <c r="C18">
-        <v>-0.001541791982074784</v>
+        <v>-0.001505407677220511</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -841,7 +841,7 @@
         <v>35</v>
       </c>
       <c r="C19">
-        <v>-0.001508073104991394</v>
+        <v>-0.00136772092362454</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -852,7 +852,7 @@
         <v>36</v>
       </c>
       <c r="C20">
-        <v>-0.001245061244206768</v>
+        <v>-0.001243966040042629</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -863,7 +863,7 @@
         <v>37</v>
       </c>
       <c r="C21">
-        <v>-0.0008749227624309405</v>
+        <v>-0.0009999609145983971</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -874,7 +874,7 @@
         <v>38</v>
       </c>
       <c r="C22">
-        <v>-0.0008636012100840335</v>
+        <v>-0.0008743415135551863</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -885,7 +885,7 @@
         <v>39</v>
       </c>
       <c r="C23">
-        <v>-0.0008034161883656509</v>
+        <v>-0.0008370122191564842</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -896,7 +896,7 @@
         <v>40</v>
       </c>
       <c r="C24">
-        <v>-0.0007923778735632173</v>
+        <v>-0.0008018424273658444</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -907,7 +907,7 @@
         <v>41</v>
       </c>
       <c r="C25">
-        <v>-0.0007489938341463414</v>
+        <v>-0.0007905640203154274</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -918,7 +918,7 @@
         <v>42</v>
       </c>
       <c r="C26">
-        <v>-0.0007467262485875717</v>
+        <v>-0.0007427226318774816</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -929,7 +929,7 @@
         <v>43</v>
       </c>
       <c r="C27">
-        <v>-0.0005825993000557209</v>
+        <v>-0.0005818674332379684</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -940,7 +940,7 @@
         <v>44</v>
       </c>
       <c r="C28">
-        <v>-0.0005342931874244238</v>
+        <v>-0.000534293186355838</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -951,7 +951,7 @@
         <v>45</v>
       </c>
       <c r="C29">
-        <v>-0.0005221474794069162</v>
+        <v>-0.0005008083981456651</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -962,7 +962,7 @@
         <v>46</v>
       </c>
       <c r="C30">
-        <v>-0.0003515887827016595</v>
+        <v>-0.0003504850910893241</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -973,7 +973,7 @@
         <v>47</v>
       </c>
       <c r="C31">
-        <v>-0.0002370989309184008</v>
+        <v>-0.0002332698278552406</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -984,7 +984,7 @@
         <v>48</v>
       </c>
       <c r="C32">
-        <v>-0.0002020710039840636</v>
+        <v>-0.0002103029741499121</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -995,7 +995,7 @@
         <v>49</v>
       </c>
       <c r="C33">
-        <v>-0.0002020451745076664</v>
+        <v>-0.000201966831119892</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1006,7 +1006,7 @@
         <v>50</v>
       </c>
       <c r="C34">
-        <v>4.623144939759037e-05</v>
+        <v>4.62314373774167e-05</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1017,7 +1017,7 @@
         <v>51</v>
       </c>
       <c r="C35">
-        <v>0.0001340210680680684</v>
+        <v>0.0001334334334334338</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1028,7 +1028,7 @@
         <v>52</v>
       </c>
       <c r="C36">
-        <v>0.0002872134438775532</v>
+        <v>0.000278160101249804</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1039,7 +1039,7 @@
         <v>53</v>
       </c>
       <c r="C37">
-        <v>0.0005216380749574042</v>
+        <v>0.0005211362465829408</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1050,7 +1050,7 @@
         <v>54</v>
       </c>
       <c r="C38">
-        <v>0.0006504422891566266</v>
+        <v>0.000648921266461193</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1061,7 +1061,7 @@
         <v>55</v>
       </c>
       <c r="C39">
-        <v>0.000654822076086957</v>
+        <v>0.000719362992922144</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1072,7 +1072,7 @@
         <v>56</v>
       </c>
       <c r="C40">
-        <v>0.001270040792792793</v>
+        <v>0.001268059920385495</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1083,7 +1083,7 @@
         <v>57</v>
       </c>
       <c r="C41">
-        <v>0.001334715484732821</v>
+        <v>0.001333623291319017</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1094,7 +1094,7 @@
         <v>58</v>
       </c>
       <c r="C42">
-        <v>0.002311086793628806</v>
+        <v>0.002308944791599557</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1105,7 +1105,7 @@
         <v>59</v>
       </c>
       <c r="C43">
-        <v>0.003123902072289158</v>
+        <v>0.00311930512748669</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1116,7 +1116,7 @@
         <v>60</v>
       </c>
       <c r="C44">
-        <v>0.004113273171428576</v>
+        <v>0.004112491694352158</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1127,7 +1127,7 @@
         <v>22</v>
       </c>
       <c r="C45">
-        <v>-0.005700907348242797</v>
+        <v>-0.005700907348242793</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1138,7 +1138,7 @@
         <v>20</v>
       </c>
       <c r="C46">
-        <v>-0.005066661653852495</v>
+        <v>-0.005066661653852501</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1179,7 +1179,7 @@
         <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C50">
         <v>-0.003267034615384604</v>
@@ -1193,7 +1193,7 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>-0.003000844935494921</v>
+        <v>-0.003000844935494916</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1204,7 +1204,7 @@
         <v>25</v>
       </c>
       <c r="C52">
-        <v>-0.002873532530120484</v>
+        <v>-0.002873532530120479</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1234,7 +1234,7 @@
         <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C55">
         <v>-0.00203522910216718</v>
@@ -1245,10 +1245,10 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C56">
-        <v>-0.001978397626112759</v>
+        <v>-0.00197839762611276</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1270,7 +1270,7 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>-0.0006252371134020597</v>
+        <v>-0.0006252371134020642</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1278,7 +1278,7 @@
         <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C59">
         <v>-0.0005747045454545413</v>
@@ -1292,7 +1292,7 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>-0.0003948697674418624</v>
+        <v>-0.0003948697674418603</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1303,7 +1303,7 @@
         <v>33</v>
       </c>
       <c r="C61">
-        <v>-0.0003520000000000007</v>
+        <v>-0.0003519999999999986</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1314,7 +1314,7 @@
         <v>64</v>
       </c>
       <c r="C62">
-        <v>-0.000175898403483308</v>
+        <v>-0.0001758984034833109</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1322,7 +1322,7 @@
         <v>4</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C63">
         <v>-0.0001315000000000001</v>
@@ -1336,7 +1336,7 @@
         <v>32</v>
       </c>
       <c r="C64">
-        <v>-8.625294117647028e-05</v>
+        <v>-8.625294117647058e-05</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1344,7 +1344,7 @@
         <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C65">
         <v>-7.814563106796112e-05</v>
@@ -1355,7 +1355,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C66">
         <v>2.221097046413504e-05</v>
@@ -1369,7 +1369,7 @@
         <v>55</v>
       </c>
       <c r="C67">
-        <v>0.0007165085324232105</v>
+        <v>0.0007165085324232081</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1391,7 +1391,7 @@
         <v>65</v>
       </c>
       <c r="C69">
-        <v>0.000854333333333333</v>
+        <v>0.0008543333333333356</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1402,7 +1402,7 @@
         <v>53</v>
       </c>
       <c r="C70">
-        <v>0.001057266331658296</v>
+        <v>0.001057266331658288</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1421,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C72">
         <v>0.001111921824104235</v>
@@ -1432,10 +1432,10 @@
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
-        <v>0.001257820663690919</v>
+        <v>0.001257820663690921</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1446,7 +1446,7 @@
         <v>44</v>
       </c>
       <c r="C74">
-        <v>0.001358467821782176</v>
+        <v>0.001358467821782183</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1457,7 +1457,7 @@
         <v>27</v>
       </c>
       <c r="C75">
-        <v>0.002389485714285715</v>
+        <v>0.002389485714285725</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1468,7 +1468,7 @@
         <v>66</v>
       </c>
       <c r="C76">
-        <v>0.002551144489795905</v>
+        <v>0.00255114448979591</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1479,7 +1479,7 @@
         <v>60</v>
       </c>
       <c r="C77">
-        <v>0.002962631808278875</v>
+        <v>0.002962631808278864</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1512,7 +1512,7 @@
         <v>57</v>
       </c>
       <c r="C80">
-        <v>0.004114232902033265</v>
+        <v>0.004114232902033274</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1545,7 +1545,7 @@
         <v>53</v>
       </c>
       <c r="C83">
-        <v>-0.003763180487804873</v>
+        <v>-0.003763180487804881</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1567,7 +1567,7 @@
         <v>21</v>
       </c>
       <c r="C85">
-        <v>-0.002321283255086073</v>
+        <v>-0.002321283255086069</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1589,7 +1589,7 @@
         <v>23</v>
       </c>
       <c r="C87">
-        <v>-0.001446267669172931</v>
+        <v>-0.001446267669172936</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1611,7 +1611,7 @@
         <v>28</v>
       </c>
       <c r="C89">
-        <v>-0.0002620728744939297</v>
+        <v>-0.0002620728744939224</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1630,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C91">
         <v>0.0002075020746887965</v>
@@ -1641,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C92">
         <v>0.0003897803468208117</v>
@@ -1652,10 +1652,10 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C93">
-        <v>0.0004352315270935955</v>
+        <v>0.0004352315270935964</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1677,7 +1677,7 @@
         <v>22</v>
       </c>
       <c r="C95">
-        <v>0.0009655757575757501</v>
+        <v>0.0009655757575757581</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1699,7 +1699,7 @@
         <v>43</v>
       </c>
       <c r="C97">
-        <v>0.001221749089498086</v>
+        <v>0.001221749089498091</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1707,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C98">
         <v>0.00130615320910973</v>
@@ -1718,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C99">
         <v>0.001314660122699388</v>
@@ -1732,7 +1732,7 @@
         <v>64</v>
       </c>
       <c r="C100">
-        <v>0.001514499999999997</v>
+        <v>0.001514500000000003</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1740,7 +1740,7 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C101">
         <v>0.001605527397260275</v>
@@ -1754,7 +1754,7 @@
         <v>44</v>
       </c>
       <c r="C102">
-        <v>0.001809181065088745</v>
+        <v>0.001809181065088751</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1762,10 +1762,10 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C103">
-        <v>0.001889051020408164</v>
+        <v>0.001889051020408162</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1798,7 +1798,7 @@
         <v>62</v>
       </c>
       <c r="C106">
-        <v>0.002332731914893616</v>
+        <v>0.002332731914893619</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1806,10 +1806,10 @@
         <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C107">
-        <v>0.002675422878265355</v>
+        <v>0.002675422878265357</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1820,7 +1820,7 @@
         <v>49</v>
       </c>
       <c r="C108">
-        <v>0.003845247131879928</v>
+        <v>0.003845247131879918</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1828,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C109">
         <v>0.003903518599562353</v>
@@ -1842,7 +1842,7 @@
         <v>19</v>
       </c>
       <c r="C110">
-        <v>0.003974116378528264</v>
+        <v>0.003974116378528273</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1853,7 +1853,7 @@
         <v>20</v>
       </c>
       <c r="C111">
-        <v>0.004148686196611141</v>
+        <v>0.004148686196611131</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1908,7 +1908,7 @@
         <v>25</v>
       </c>
       <c r="C116">
-        <v>0.005541650385604112</v>
+        <v>0.005541650385604123</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -1919,7 +1919,7 @@
         <v>57</v>
       </c>
       <c r="C117">
-        <v>0.006854409475465322</v>
+        <v>0.006854409475465312</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1941,7 +1941,7 @@
         <v>27</v>
       </c>
       <c r="C119">
-        <v>0.01025320945945944</v>
+        <v>0.01025320945945943</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -1952,7 +1952,7 @@
         <v>18</v>
       </c>
       <c r="C120">
-        <v>0.0174145337830485</v>
+        <v>0.01741453378304849</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -1985,7 +1985,7 @@
         <v>63</v>
       </c>
       <c r="C123">
-        <v>-0.00617399549549546</v>
+        <v>-0.006173995495495459</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -1996,7 +1996,7 @@
         <v>27</v>
       </c>
       <c r="C124">
-        <v>-0.005241088948787069</v>
+        <v>-0.005241088948787063</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2048,10 +2048,10 @@
         <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C129">
-        <v>-0.003422607692307682</v>
+        <v>-0.003422607692307679</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2059,7 +2059,7 @@
         <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C130">
         <v>-0.003324705660377359</v>
@@ -2095,7 +2095,7 @@
         <v>20</v>
       </c>
       <c r="C133">
-        <v>-0.002428299971916524</v>
+        <v>-0.00242829997191653</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2106,7 +2106,7 @@
         <v>43</v>
       </c>
       <c r="C134">
-        <v>-0.002410003381085062</v>
+        <v>-0.002410003381085065</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2139,7 +2139,7 @@
         <v>57</v>
       </c>
       <c r="C137">
-        <v>-0.001697090909090913</v>
+        <v>-0.001697090909090908</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2150,7 +2150,7 @@
         <v>53</v>
       </c>
       <c r="C138">
-        <v>-0.001532816029143895</v>
+        <v>-0.001532816029143899</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2158,7 +2158,7 @@
         <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C139">
         <v>-0.001214760368663594</v>
@@ -2172,7 +2172,7 @@
         <v>64</v>
       </c>
       <c r="C140">
-        <v>-0.001045301960784311</v>
+        <v>-0.001045301960784314</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2180,7 +2180,7 @@
         <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C141">
         <v>-0.0009444159999999995</v>
@@ -2194,7 +2194,7 @@
         <v>66</v>
       </c>
       <c r="C142">
-        <v>-0.0008835233216500434</v>
+        <v>-0.0008835233216500409</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2216,7 +2216,7 @@
         <v>21</v>
       </c>
       <c r="C144">
-        <v>-0.0005288217317487235</v>
+        <v>-0.0005288217317487267</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2227,7 +2227,7 @@
         <v>32</v>
       </c>
       <c r="C145">
-        <v>-0.000407477073170732</v>
+        <v>-0.0004074770731707311</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2235,7 +2235,7 @@
         <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C146">
         <v>-0.0002003771428571414</v>
@@ -2257,10 +2257,10 @@
         <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C148">
-        <v>-5.866181818181849e-05</v>
+        <v>-5.866181818181759e-05</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2268,7 +2268,7 @@
         <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C149">
         <v>-1.415053763440874e-05</v>
@@ -2293,7 +2293,7 @@
         <v>62</v>
       </c>
       <c r="C151">
-        <v>0.0006342941176470613</v>
+        <v>0.0006342941176470566</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2301,7 +2301,7 @@
         <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C152">
         <v>0.001336320610687024</v>
@@ -2323,10 +2323,10 @@
         <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C154">
-        <v>0.001833333333333333</v>
+        <v>0.001833333333333331</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2370,7 +2370,7 @@
         <v>24</v>
       </c>
       <c r="C158">
-        <v>0.01334225867507886</v>
+        <v>0.01334225867507887</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2381,7 +2381,7 @@
         <v>43</v>
       </c>
       <c r="C159">
-        <v>-0.007934837069653353</v>
+        <v>-0.007934837069653356</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2400,10 +2400,10 @@
         <v>7</v>
       </c>
       <c r="B161" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C161">
-        <v>-0.005542040229885054</v>
+        <v>-0.005542040229885058</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2425,7 +2425,7 @@
         <v>44</v>
       </c>
       <c r="C163">
-        <v>-0.002516918590522479</v>
+        <v>-0.002516918590522482</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2436,7 +2436,7 @@
         <v>53</v>
       </c>
       <c r="C164">
-        <v>-0.002322271510516249</v>
+        <v>-0.002322271510516252</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2455,10 +2455,10 @@
         <v>7</v>
       </c>
       <c r="B166" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C166">
-        <v>-0.002111947743467932</v>
+        <v>-0.002111947743467935</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2469,7 +2469,7 @@
         <v>55</v>
       </c>
       <c r="C167">
-        <v>-0.001649296636085622</v>
+        <v>-0.001649296636085619</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2491,7 +2491,7 @@
         <v>60</v>
       </c>
       <c r="C169">
-        <v>-0.0008665972222222248</v>
+        <v>-0.0008665972222222191</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2502,7 +2502,7 @@
         <v>23</v>
       </c>
       <c r="C170">
-        <v>-0.0001243751987281358</v>
+        <v>-0.0001243751987281445</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2510,7 +2510,7 @@
         <v>7</v>
       </c>
       <c r="B171" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C171">
         <v>-0.0001123040293040292</v>
@@ -2543,10 +2543,10 @@
         <v>7</v>
       </c>
       <c r="B174" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C174">
-        <v>3.337681159420276e-05</v>
+        <v>3.337681159420305e-05</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2568,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="C176">
-        <v>0.0001975466666666679</v>
+        <v>0.0001975466666666646</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2576,7 +2576,7 @@
         <v>7</v>
       </c>
       <c r="B177" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C177">
         <v>0.0002945933117583606</v>
@@ -2590,7 +2590,7 @@
         <v>64</v>
       </c>
       <c r="C178">
-        <v>0.0003000228898426332</v>
+        <v>0.0003000228898426314</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2598,7 +2598,7 @@
         <v>7</v>
       </c>
       <c r="B179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C179">
         <v>0.0004105428973277069</v>
@@ -2623,7 +2623,7 @@
         <v>45</v>
       </c>
       <c r="C181">
-        <v>0.0009499411764705896</v>
+        <v>0.0009499411764705872</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2634,7 +2634,7 @@
         <v>19</v>
       </c>
       <c r="C182">
-        <v>0.0009703635620961679</v>
+        <v>0.0009703635620961652</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2645,7 +2645,7 @@
         <v>24</v>
       </c>
       <c r="C183">
-        <v>0.001443155778894481</v>
+        <v>0.00144315577889447</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2664,7 +2664,7 @@
         <v>7</v>
       </c>
       <c r="B185" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C185">
         <v>0.001981465449804434</v>
@@ -2678,7 +2678,7 @@
         <v>22</v>
       </c>
       <c r="C186">
-        <v>0.002020403292181073</v>
+        <v>0.002020403292181065</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -2708,10 +2708,10 @@
         <v>7</v>
       </c>
       <c r="B189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C189">
-        <v>0.005207898678414077</v>
+        <v>0.005207898678414083</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -2752,10 +2752,10 @@
         <v>7</v>
       </c>
       <c r="B193" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C193">
-        <v>0.008341437499999965</v>
+        <v>0.00834143749999996</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2766,7 +2766,7 @@
         <v>66</v>
       </c>
       <c r="C194">
-        <v>0.009833515423443634</v>
+        <v>0.009833515423443639</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -2777,7 +2777,7 @@
         <v>63</v>
       </c>
       <c r="C195">
-        <v>0.01170770086956521</v>
+        <v>0.01170770086956522</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -2788,7 +2788,7 @@
         <v>28</v>
       </c>
       <c r="C196">
-        <v>0.01378458757062144</v>
+        <v>0.01378458757062143</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2799,7 +2799,7 @@
         <v>23</v>
       </c>
       <c r="C197">
-        <v>-0.008027604465709727</v>
+        <v>-0.008027604465709732</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -2810,7 +2810,7 @@
         <v>28</v>
       </c>
       <c r="C198">
-        <v>-0.00652603278688525</v>
+        <v>-0.006526032786885246</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -2851,7 +2851,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C202">
         <v>-0.004557796279069767</v>
@@ -2865,7 +2865,7 @@
         <v>18</v>
       </c>
       <c r="C203">
-        <v>-0.003948864293754312</v>
+        <v>-0.003948864293754314</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -2876,7 +2876,7 @@
         <v>36</v>
       </c>
       <c r="C204">
-        <v>-0.003713878727688245</v>
+        <v>-0.003713878727688242</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -2909,7 +2909,7 @@
         <v>56</v>
       </c>
       <c r="C207">
-        <v>-0.001814082969432315</v>
+        <v>-0.001814082969432313</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -2942,7 +2942,7 @@
         <v>25</v>
       </c>
       <c r="C210">
-        <v>-0.0005261772486772498</v>
+        <v>-0.0005261772486772453</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -2953,7 +2953,7 @@
         <v>62</v>
       </c>
       <c r="C211">
-        <v>-0.0004720533333333325</v>
+        <v>-0.0004720533333333345</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2975,7 +2975,7 @@
         <v>71</v>
       </c>
       <c r="C213">
-        <v>-0.0004531167512690349</v>
+        <v>-0.0004531167512690342</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -2983,7 +2983,7 @@
         <v>8</v>
       </c>
       <c r="B214" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C214">
         <v>-0.0003113387888707033</v>
@@ -2997,7 +2997,7 @@
         <v>72</v>
       </c>
       <c r="C215">
-        <v>-0.0001772971014492749</v>
+        <v>-0.0001772971014492743</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3008,7 +3008,7 @@
         <v>19</v>
       </c>
       <c r="C216">
-        <v>-0.0001459374629052634</v>
+        <v>-0.0001459374629052622</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3016,10 +3016,10 @@
         <v>8</v>
       </c>
       <c r="B217" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C217">
-        <v>-0.0001452924623115578</v>
+        <v>-0.0001452924623115575</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3030,7 +3030,7 @@
         <v>45</v>
       </c>
       <c r="C218">
-        <v>-0.0001097567567567556</v>
+        <v>-0.0001097567567567583</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3049,10 +3049,10 @@
         <v>8</v>
       </c>
       <c r="B220" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C220">
-        <v>-4.323135755258078e-05</v>
+        <v>-4.323135755258091e-05</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3063,7 +3063,7 @@
         <v>64</v>
       </c>
       <c r="C221">
-        <v>-4.300689655172469e-05</v>
+        <v>-4.300689655172383e-05</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3074,7 +3074,7 @@
         <v>20</v>
       </c>
       <c r="C222">
-        <v>0.000297836878162316</v>
+        <v>0.0002978368781623067</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3082,7 +3082,7 @@
         <v>8</v>
       </c>
       <c r="B223" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C223">
         <v>0.0005232816711590293</v>
@@ -3107,7 +3107,7 @@
         <v>43</v>
       </c>
       <c r="C225">
-        <v>0.0007572557438094596</v>
+        <v>0.0007572557438094658</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3118,7 +3118,7 @@
         <v>61</v>
       </c>
       <c r="C226">
-        <v>0.0009744360902255646</v>
+        <v>0.0009744360902255615</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3137,7 +3137,7 @@
         <v>8</v>
       </c>
       <c r="B228" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C228">
         <v>0.001261781420765027</v>
@@ -3151,7 +3151,7 @@
         <v>24</v>
       </c>
       <c r="C229">
-        <v>0.001504471882640586</v>
+        <v>0.001504471882640575</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3159,7 +3159,7 @@
         <v>8</v>
       </c>
       <c r="B230" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C230">
         <v>0.001801459948320415</v>
@@ -3203,10 +3203,10 @@
         <v>8</v>
       </c>
       <c r="B234" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C234">
-        <v>0.002852692832764499</v>
+        <v>0.002852692832764506</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3214,7 +3214,7 @@
         <v>8</v>
       </c>
       <c r="B235" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C235">
         <v>0.005388749999999999</v>
@@ -3272,7 +3272,7 @@
         <v>26</v>
       </c>
       <c r="C240">
-        <v>-0.006828455284552829</v>
+        <v>-0.006828455284552825</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3283,7 +3283,7 @@
         <v>74</v>
       </c>
       <c r="C241">
-        <v>-0.00635490759753593</v>
+        <v>-0.006354907597535936</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3305,7 +3305,7 @@
         <v>20</v>
       </c>
       <c r="C243">
-        <v>-0.005182475344203382</v>
+        <v>-0.005182475344203377</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3360,7 +3360,7 @@
         <v>55</v>
       </c>
       <c r="C248">
-        <v>-0.00392930677290835</v>
+        <v>-0.003929306772908352</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3379,7 +3379,7 @@
         <v>9</v>
       </c>
       <c r="B250" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C250">
         <v>-0.003588243243243242</v>
@@ -3401,7 +3401,7 @@
         <v>9</v>
       </c>
       <c r="B252" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C252">
         <v>-0.003292180094786729</v>
@@ -3445,10 +3445,10 @@
         <v>9</v>
       </c>
       <c r="B256" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C256">
-        <v>-0.002664518518518518</v>
+        <v>-0.002664518518518516</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3467,7 +3467,7 @@
         <v>9</v>
       </c>
       <c r="B258" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C258">
         <v>-0.00213547987616099</v>
@@ -3481,7 +3481,7 @@
         <v>24</v>
       </c>
       <c r="C259">
-        <v>-0.00201894312796209</v>
+        <v>-0.00201894312796208</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -3489,7 +3489,7 @@
         <v>9</v>
       </c>
       <c r="B260" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C260">
         <v>-0.001916172248803828</v>
@@ -3547,7 +3547,7 @@
         <v>36</v>
       </c>
       <c r="C265">
-        <v>-0.001003417622013341</v>
+        <v>-0.001003417622013337</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -3555,10 +3555,10 @@
         <v>9</v>
       </c>
       <c r="B266" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C266">
-        <v>-0.000721571056062581</v>
+        <v>-0.0007215710560625801</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -3569,7 +3569,7 @@
         <v>64</v>
       </c>
       <c r="C267">
-        <v>-0.0006747184466019407</v>
+        <v>-0.0006747184466019422</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -3580,7 +3580,7 @@
         <v>19</v>
       </c>
       <c r="C268">
-        <v>-0.0004710317204141884</v>
+        <v>-0.0004710317204141859</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -3610,10 +3610,10 @@
         <v>9</v>
       </c>
       <c r="B271" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C271">
-        <v>-0.0001341974789915961</v>
+        <v>-0.0001341974789915969</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -3621,10 +3621,10 @@
         <v>9</v>
       </c>
       <c r="B272" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C272">
-        <v>-0.0001239583333333324</v>
+        <v>-0.0001239583333333323</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -3657,7 +3657,7 @@
         <v>52</v>
       </c>
       <c r="C275">
-        <v>0.0002375167785234856</v>
+        <v>0.0002375167785234935</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -3676,10 +3676,10 @@
         <v>9</v>
       </c>
       <c r="B277" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C277">
-        <v>0.001301746875000004</v>
+        <v>0.001301746874999997</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -3701,7 +3701,7 @@
         <v>27</v>
       </c>
       <c r="C279">
-        <v>0.001477400548696846</v>
+        <v>0.001477400548696837</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -3745,7 +3745,7 @@
         <v>28</v>
       </c>
       <c r="C283">
-        <v>-0.005120147058823519</v>
+        <v>-0.005120147058823516</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -3764,7 +3764,7 @@
         <v>10</v>
       </c>
       <c r="B285" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C285">
         <v>-0.003701371237458196</v>
@@ -3778,7 +3778,7 @@
         <v>56</v>
       </c>
       <c r="C286">
-        <v>-0.003319223300970875</v>
+        <v>-0.003319223300970873</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -3789,7 +3789,7 @@
         <v>52</v>
       </c>
       <c r="C287">
-        <v>-0.003117919999999987</v>
+        <v>-0.003117919999999991</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -3800,7 +3800,7 @@
         <v>23</v>
       </c>
       <c r="C288">
-        <v>-0.002950488081725314</v>
+        <v>-0.00295048808172531</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -3811,7 +3811,7 @@
         <v>73</v>
       </c>
       <c r="C289">
-        <v>-0.00201646496559573</v>
+        <v>-0.002016464965595733</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -3855,7 +3855,7 @@
         <v>67</v>
       </c>
       <c r="C293">
-        <v>-0.001193916083916081</v>
+        <v>-0.001193916083916087</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -3866,7 +3866,7 @@
         <v>70</v>
       </c>
       <c r="C294">
-        <v>-0.0008872829525483296</v>
+        <v>-0.0008872829525483311</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -3888,7 +3888,7 @@
         <v>66</v>
       </c>
       <c r="C296">
-        <v>-0.0006315483146067426</v>
+        <v>-0.0006315483146067398</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -3896,7 +3896,7 @@
         <v>10</v>
       </c>
       <c r="B297" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C297">
         <v>-0.000525194748358862</v>
@@ -3910,7 +3910,7 @@
         <v>71</v>
       </c>
       <c r="C298">
-        <v>-0.0004069115044247786</v>
+        <v>-0.000406911504424779</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -3921,7 +3921,7 @@
         <v>62</v>
       </c>
       <c r="C299">
-        <v>-0.0003277061611374431</v>
+        <v>-0.0003277061611374387</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -3932,7 +3932,7 @@
         <v>69</v>
       </c>
       <c r="C300">
-        <v>-0.000217361111111111</v>
+        <v>-0.0002173611111111105</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -3940,7 +3940,7 @@
         <v>10</v>
       </c>
       <c r="B301" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C301">
         <v>-2.566998892580286e-05</v>
@@ -3951,10 +3951,10 @@
         <v>10</v>
       </c>
       <c r="B302" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C302">
-        <v>0.0001959438202247196</v>
+        <v>0.0001959438202247157</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -3965,7 +3965,7 @@
         <v>61</v>
       </c>
       <c r="C303">
-        <v>0.0002262181616832773</v>
+        <v>0.0002262181616832791</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -3976,7 +3976,7 @@
         <v>72</v>
       </c>
       <c r="C304">
-        <v>0.0002849216589861749</v>
+        <v>0.0002849216589861755</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -3987,7 +3987,7 @@
         <v>19</v>
       </c>
       <c r="C305">
-        <v>0.0002956142437877327</v>
+        <v>0.0002956142437877353</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -4039,7 +4039,7 @@
         <v>10</v>
       </c>
       <c r="B310" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C310">
         <v>0.001497296610169483</v>
@@ -4053,7 +4053,7 @@
         <v>36</v>
       </c>
       <c r="C311">
-        <v>0.002166666666666674</v>
+        <v>0.002166666666666666</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -4083,10 +4083,10 @@
         <v>10</v>
       </c>
       <c r="B314" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C314">
-        <v>0.003091266272189345</v>
+        <v>0.003091266272189347</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -4108,7 +4108,7 @@
         <v>43</v>
       </c>
       <c r="C316">
-        <v>0.003456007059175743</v>
+        <v>0.003456007059175749</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -4138,10 +4138,10 @@
         <v>10</v>
       </c>
       <c r="B319" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C319">
-        <v>0.00659285657894737</v>
+        <v>0.006592856578947365</v>
       </c>
     </row>
     <row r="320" spans="1:3">
@@ -4149,7 +4149,7 @@
         <v>10</v>
       </c>
       <c r="B320" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C320">
         <v>0.007075465465465462</v>
@@ -4218,7 +4218,7 @@
         <v>20</v>
       </c>
       <c r="C326">
-        <v>-0.008966409441852997</v>
+        <v>-0.008966409441853002</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -4248,10 +4248,10 @@
         <v>11</v>
       </c>
       <c r="B329" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C329">
-        <v>-0.005785860228716643</v>
+        <v>-0.005785860228716646</v>
       </c>
     </row>
     <row r="330" spans="1:3">
@@ -4292,10 +4292,10 @@
         <v>11</v>
       </c>
       <c r="B333" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C333">
-        <v>-0.003941428571428571</v>
+        <v>-0.003941428571428573</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -4306,7 +4306,7 @@
         <v>25</v>
       </c>
       <c r="C334">
-        <v>-0.003518977777777773</v>
+        <v>-0.003518977777777768</v>
       </c>
     </row>
     <row r="335" spans="1:3">
@@ -4314,7 +4314,7 @@
         <v>11</v>
       </c>
       <c r="B335" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C335">
         <v>-0.003487799999999999</v>
@@ -4325,7 +4325,7 @@
         <v>11</v>
       </c>
       <c r="B336" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C336">
         <v>-0.003295414392059551</v>
@@ -4361,7 +4361,7 @@
         <v>73</v>
       </c>
       <c r="C339">
-        <v>-0.002970172209730116</v>
+        <v>-0.002970172209730117</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -4394,7 +4394,7 @@
         <v>68</v>
       </c>
       <c r="C342">
-        <v>-0.002851598591549275</v>
+        <v>-0.002851598591549276</v>
       </c>
     </row>
     <row r="343" spans="1:3">
@@ -4402,7 +4402,7 @@
         <v>11</v>
       </c>
       <c r="B343" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C343">
         <v>-0.002569613122171945</v>
@@ -4416,7 +4416,7 @@
         <v>55</v>
       </c>
       <c r="C344">
-        <v>-0.002547102402022733</v>
+        <v>-0.002547102402022734</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -4438,7 +4438,7 @@
         <v>56</v>
       </c>
       <c r="C346">
-        <v>-0.00223141707317073</v>
+        <v>-0.002231417073170732</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -4449,7 +4449,7 @@
         <v>72</v>
       </c>
       <c r="C347">
-        <v>-0.001659333333333333</v>
+        <v>-0.001659333333333334</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -4471,7 +4471,7 @@
         <v>61</v>
       </c>
       <c r="C349">
-        <v>-0.001443202586206897</v>
+        <v>-0.001443202586206896</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -4493,7 +4493,7 @@
         <v>64</v>
       </c>
       <c r="C351">
-        <v>-0.0009396115107913663</v>
+        <v>-0.0009396115107913653</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -4504,7 +4504,7 @@
         <v>22</v>
       </c>
       <c r="C352">
-        <v>-0.0008751409691629925</v>
+        <v>-0.000875140969162995</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -4515,7 +4515,7 @@
         <v>45</v>
       </c>
       <c r="C353">
-        <v>-0.0007012160493827169</v>
+        <v>-0.0007012160493827148</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -4523,10 +4523,10 @@
         <v>11</v>
       </c>
       <c r="B354" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C354">
-        <v>-0.0003236586538461533</v>
+        <v>-0.000323658653846154</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -4537,7 +4537,7 @@
         <v>67</v>
       </c>
       <c r="C355">
-        <v>-0.0002825735294117648</v>
+        <v>-0.0002825735294117645</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -4545,7 +4545,7 @@
         <v>11</v>
       </c>
       <c r="B356" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C356">
         <v>-0.0002710000000000018</v>
@@ -4570,7 +4570,7 @@
         <v>71</v>
       </c>
       <c r="C358">
-        <v>-0.0001426800000000004</v>
+        <v>-0.0001426799999999998</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -4581,7 +4581,7 @@
         <v>69</v>
       </c>
       <c r="C359">
-        <v>0.0002643786407766985</v>
+        <v>0.0002643786407766996</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -4611,7 +4611,7 @@
         <v>11</v>
       </c>
       <c r="B362" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C362">
         <v>0.005281955555555558</v>
@@ -4625,7 +4625,7 @@
         <v>74</v>
       </c>
       <c r="C363">
-        <v>-0.008081430789133228</v>
+        <v>-0.008081430789133233</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -4680,7 +4680,7 @@
         <v>75</v>
       </c>
       <c r="C368">
-        <v>-0.002162407969639465</v>
+        <v>-0.002162407969639473</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -4688,10 +4688,10 @@
         <v>12</v>
       </c>
       <c r="B369" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C369">
-        <v>-0.001846651006711409</v>
+        <v>-0.00184665100671141</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -4713,7 +4713,7 @@
         <v>20</v>
       </c>
       <c r="C371">
-        <v>-0.001794375480625421</v>
+        <v>-0.001794375480625416</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -4735,7 +4735,7 @@
         <v>19</v>
       </c>
       <c r="C373">
-        <v>-0.001038434091953429</v>
+        <v>-0.001038434091953425</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -4757,7 +4757,7 @@
         <v>18</v>
       </c>
       <c r="C375">
-        <v>-0.000730410133643459</v>
+        <v>-0.0007304101336434509</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -4798,7 +4798,7 @@
         <v>12</v>
       </c>
       <c r="B379" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C379">
         <v>0.0003501679389312977</v>
@@ -4823,7 +4823,7 @@
         <v>78</v>
       </c>
       <c r="C381">
-        <v>0.0004135785440613062</v>
+        <v>0.0004135785440613002</v>
       </c>
     </row>
     <row r="382" spans="1:3">
@@ -4834,7 +4834,7 @@
         <v>64</v>
       </c>
       <c r="C382">
-        <v>0.000554599999999999</v>
+        <v>0.0005546000000000003</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -4889,7 +4889,7 @@
         <v>57</v>
       </c>
       <c r="C387">
-        <v>0.0009430232558139438</v>
+        <v>0.0009430232558139528</v>
       </c>
     </row>
     <row r="388" spans="1:3">
@@ -4922,7 +4922,7 @@
         <v>60</v>
       </c>
       <c r="C390">
-        <v>0.002187513461538465</v>
+        <v>0.002187513461538454</v>
       </c>
     </row>
     <row r="391" spans="1:3">
@@ -4930,7 +4930,7 @@
         <v>12</v>
       </c>
       <c r="B391" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C391">
         <v>0.002414969101123593</v>
@@ -4952,10 +4952,10 @@
         <v>12</v>
       </c>
       <c r="B393" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C393">
-        <v>0.002847749063670395</v>
+        <v>0.002847749063670399</v>
       </c>
     </row>
     <row r="394" spans="1:3">
@@ -4966,7 +4966,7 @@
         <v>44</v>
       </c>
       <c r="C394">
-        <v>0.002863636363636362</v>
+        <v>0.002863636363636367</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -4974,10 +4974,10 @@
         <v>12</v>
       </c>
       <c r="B395" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C395">
-        <v>0.00452891201353638</v>
+        <v>0.004528912013536376</v>
       </c>
     </row>
     <row r="396" spans="1:3">
@@ -4988,7 +4988,7 @@
         <v>26</v>
       </c>
       <c r="C396">
-        <v>0.005395891273247492</v>
+        <v>0.005395891273247481</v>
       </c>
     </row>
     <row r="397" spans="1:3">
@@ -5010,7 +5010,7 @@
         <v>59</v>
       </c>
       <c r="C398">
-        <v>0.008583723618090459</v>
+        <v>0.00858372361809045</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -5043,7 +5043,7 @@
         <v>27</v>
       </c>
       <c r="C401">
-        <v>-0.005907515717092325</v>
+        <v>-0.00590751571709232</v>
       </c>
     </row>
     <row r="402" spans="1:3">
@@ -5062,10 +5062,10 @@
         <v>13</v>
       </c>
       <c r="B403" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C403">
-        <v>-0.00509958181818182</v>
+        <v>-0.005099581818181817</v>
       </c>
     </row>
     <row r="404" spans="1:3">
@@ -5076,7 +5076,7 @@
         <v>20</v>
       </c>
       <c r="C404">
-        <v>-0.004413668114680297</v>
+        <v>-0.004413668114680303</v>
       </c>
     </row>
     <row r="405" spans="1:3">
@@ -5087,7 +5087,7 @@
         <v>18</v>
       </c>
       <c r="C405">
-        <v>-0.004286676997434683</v>
+        <v>-0.004286676997434691</v>
       </c>
     </row>
     <row r="406" spans="1:3">
@@ -5131,7 +5131,7 @@
         <v>19</v>
       </c>
       <c r="C409">
-        <v>-0.003400482728932641</v>
+        <v>-0.003400482728932638</v>
       </c>
     </row>
     <row r="410" spans="1:3">
@@ -5142,7 +5142,7 @@
         <v>28</v>
       </c>
       <c r="C410">
-        <v>-0.003362666666666657</v>
+        <v>-0.00336266666666666</v>
       </c>
     </row>
     <row r="411" spans="1:3">
@@ -5150,10 +5150,10 @@
         <v>13</v>
       </c>
       <c r="B411" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C411">
-        <v>-0.003173803526448362</v>
+        <v>-0.003173803526448365</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -5172,10 +5172,10 @@
         <v>13</v>
       </c>
       <c r="B413" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C413">
-        <v>-0.001761261853448266</v>
+        <v>-0.001761261853448268</v>
       </c>
     </row>
     <row r="414" spans="1:3">
@@ -5219,7 +5219,7 @@
         <v>45</v>
       </c>
       <c r="C417">
-        <v>-0.0008215500000000026</v>
+        <v>-0.0008215500000000008</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -5241,7 +5241,7 @@
         <v>79</v>
       </c>
       <c r="C419">
-        <v>-0.0007859622641509432</v>
+        <v>-0.0007859622641509444</v>
       </c>
     </row>
     <row r="420" spans="1:3">
@@ -5252,7 +5252,7 @@
         <v>70</v>
       </c>
       <c r="C420">
-        <v>-0.0007404039256198347</v>
+        <v>-0.0007404039256198353</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -5263,7 +5263,7 @@
         <v>73</v>
       </c>
       <c r="C421">
-        <v>-0.000610841323173845</v>
+        <v>-0.0006108413231738435</v>
       </c>
     </row>
     <row r="422" spans="1:3">
@@ -5271,10 +5271,10 @@
         <v>13</v>
       </c>
       <c r="B422" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C422">
-        <v>-0.0005070884353741496</v>
+        <v>-0.0005070884353741493</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -5296,7 +5296,7 @@
         <v>69</v>
       </c>
       <c r="C424">
-        <v>-0.0002590143442622953</v>
+        <v>-0.0002590143442622951</v>
       </c>
     </row>
     <row r="425" spans="1:3">
@@ -5340,7 +5340,7 @@
         <v>44</v>
       </c>
       <c r="C428">
-        <v>0.001319017741935481</v>
+        <v>0.001319017741935485</v>
       </c>
     </row>
     <row r="429" spans="1:3">
@@ -5348,10 +5348,10 @@
         <v>13</v>
       </c>
       <c r="B429" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C429">
-        <v>0.001998412451361869</v>
+        <v>0.001998412451361866</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -5395,7 +5395,7 @@
         <v>25</v>
       </c>
       <c r="C433">
-        <v>0.005187807073954988</v>
+        <v>0.005187807073954977</v>
       </c>
     </row>
     <row r="434" spans="1:3">
@@ -5450,7 +5450,7 @@
         <v>25</v>
       </c>
       <c r="C438">
-        <v>-0.008247218658892115</v>
+        <v>-0.00824721865889211</v>
       </c>
     </row>
     <row r="439" spans="1:3">
@@ -5483,7 +5483,7 @@
         <v>28</v>
       </c>
       <c r="C441">
-        <v>-0.005860142469470807</v>
+        <v>-0.005860142469470811</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -5494,7 +5494,7 @@
         <v>75</v>
       </c>
       <c r="C442">
-        <v>-0.005822363636363619</v>
+        <v>-0.005822363636363622</v>
       </c>
     </row>
     <row r="443" spans="1:3">
@@ -5513,7 +5513,7 @@
         <v>14</v>
       </c>
       <c r="B444" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C444">
         <v>-0.004806464788732367</v>
@@ -5538,7 +5538,7 @@
         <v>45</v>
       </c>
       <c r="C446">
-        <v>-0.004621457236842104</v>
+        <v>-0.004621457236842106</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -5579,7 +5579,7 @@
         <v>14</v>
       </c>
       <c r="B450" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C450">
         <v>-0.003234568914956011</v>
@@ -5593,7 +5593,7 @@
         <v>43</v>
       </c>
       <c r="C451">
-        <v>-0.002779618618618618</v>
+        <v>-0.002779618618618616</v>
       </c>
     </row>
     <row r="452" spans="1:3">
@@ -5601,10 +5601,10 @@
         <v>14</v>
       </c>
       <c r="B452" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C452">
-        <v>-0.002768817204301075</v>
+        <v>-0.002768817204301077</v>
       </c>
     </row>
     <row r="453" spans="1:3">
@@ -5626,7 +5626,7 @@
         <v>66</v>
       </c>
       <c r="C454">
-        <v>-0.002657966527196652</v>
+        <v>-0.002657966527196651</v>
       </c>
     </row>
     <row r="455" spans="1:3">
@@ -5648,7 +5648,7 @@
         <v>74</v>
       </c>
       <c r="C456">
-        <v>-0.0017035546875</v>
+        <v>-0.001703554687500005</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -5659,7 +5659,7 @@
         <v>44</v>
       </c>
       <c r="C457">
-        <v>-0.001633711684370259</v>
+        <v>-0.001633711684370258</v>
       </c>
     </row>
     <row r="458" spans="1:3">
@@ -5667,10 +5667,10 @@
         <v>14</v>
       </c>
       <c r="B458" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C458">
-        <v>-0.001297460000000002</v>
+        <v>-0.00129746</v>
       </c>
     </row>
     <row r="459" spans="1:3">
@@ -5681,7 +5681,7 @@
         <v>19</v>
       </c>
       <c r="C459">
-        <v>-0.001229262183133017</v>
+        <v>-0.001229262183133014</v>
       </c>
     </row>
     <row r="460" spans="1:3">
@@ -5692,7 +5692,7 @@
         <v>23</v>
       </c>
       <c r="C460">
-        <v>-0.0009777180067950153</v>
+        <v>-0.0009777180067950192</v>
       </c>
     </row>
     <row r="461" spans="1:3">
@@ -5714,7 +5714,7 @@
         <v>79</v>
       </c>
       <c r="C462">
-        <v>-0.000539795918367347</v>
+        <v>-0.0005397959183673463</v>
       </c>
     </row>
     <row r="463" spans="1:3">
@@ -5736,7 +5736,7 @@
         <v>55</v>
       </c>
       <c r="C464">
-        <v>-0.0003097313019390581</v>
+        <v>-0.0003097313019390584</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -5744,10 +5744,10 @@
         <v>14</v>
       </c>
       <c r="B465" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C465">
-        <v>-0.0001090165289256195</v>
+        <v>-0.00010901652892562</v>
       </c>
     </row>
     <row r="466" spans="1:3">
@@ -5758,7 +5758,7 @@
         <v>52</v>
       </c>
       <c r="C466">
-        <v>-3.796210526316362e-05</v>
+        <v>-3.796210526315561e-05</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -5824,7 +5824,7 @@
         <v>80</v>
       </c>
       <c r="C472">
-        <v>-0.004007384615384604</v>
+        <v>-0.004007384615384608</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -5832,7 +5832,7 @@
         <v>15</v>
       </c>
       <c r="B473" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C473">
         <v>-0.002745762711864406</v>
@@ -5868,7 +5868,7 @@
         <v>43</v>
       </c>
       <c r="C476">
-        <v>-0.0009737891566265008</v>
+        <v>-0.0009737891566265028</v>
       </c>
     </row>
     <row r="477" spans="1:3">
@@ -5879,7 +5879,7 @@
         <v>18</v>
       </c>
       <c r="C477">
-        <v>-0.000436390287607262</v>
+        <v>-0.000436390287607269</v>
       </c>
     </row>
     <row r="478" spans="1:3">
@@ -5887,10 +5887,10 @@
         <v>15</v>
       </c>
       <c r="B478" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C478">
-        <v>-0.000355655367231638</v>
+        <v>-0.0003556553672316388</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -5909,10 +5909,10 @@
         <v>15</v>
       </c>
       <c r="B480" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C480">
-        <v>4.840871934604971e-05</v>
+        <v>4.840871934604774e-05</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -5923,7 +5923,7 @@
         <v>25</v>
       </c>
       <c r="C481">
-        <v>0.0003153076923076866</v>
+        <v>0.0003153076923076967</v>
       </c>
     </row>
     <row r="482" spans="1:3">
@@ -5934,7 +5934,7 @@
         <v>52</v>
       </c>
       <c r="C482">
-        <v>0.0003216828240252955</v>
+        <v>0.0003216828240252859</v>
       </c>
     </row>
     <row r="483" spans="1:3">
@@ -5945,7 +5945,7 @@
         <v>55</v>
       </c>
       <c r="C483">
-        <v>0.0003960031055900626</v>
+        <v>0.0003960031055900616</v>
       </c>
     </row>
     <row r="484" spans="1:3">
@@ -5975,7 +5975,7 @@
         <v>15</v>
       </c>
       <c r="B486" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C486">
         <v>0.0006611845018450184</v>
@@ -5989,7 +5989,7 @@
         <v>57</v>
       </c>
       <c r="C487">
-        <v>0.0009702703777335983</v>
+        <v>0.0009702703777336066</v>
       </c>
     </row>
     <row r="488" spans="1:3">
@@ -5997,7 +5997,7 @@
         <v>15</v>
       </c>
       <c r="B488" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C488">
         <v>0.001004903846153847</v>
@@ -6011,7 +6011,7 @@
         <v>66</v>
       </c>
       <c r="C489">
-        <v>0.001112216292134834</v>
+        <v>0.001112216292134831</v>
       </c>
     </row>
     <row r="490" spans="1:3">
@@ -6022,7 +6022,7 @@
         <v>70</v>
       </c>
       <c r="C490">
-        <v>0.001708333333333334</v>
+        <v>0.001708333333333333</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -6055,7 +6055,7 @@
         <v>75</v>
       </c>
       <c r="C493">
-        <v>0.002234035862068969</v>
+        <v>0.002234035862068962</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -6121,7 +6121,7 @@
         <v>27</v>
       </c>
       <c r="C499">
-        <v>0.004294015898251187</v>
+        <v>0.004294015898251196</v>
       </c>
     </row>
     <row r="500" spans="1:3">
@@ -6143,7 +6143,7 @@
         <v>49</v>
       </c>
       <c r="C501">
-        <v>0.006421151219512192</v>
+        <v>0.006421151219512201</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -6198,7 +6198,7 @@
         <v>74</v>
       </c>
       <c r="C506">
-        <v>0.0202546796747967</v>
+        <v>0.02025467967479671</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -6231,7 +6231,7 @@
         <v>81</v>
       </c>
       <c r="C509">
-        <v>-0.01838981343873517</v>
+        <v>-0.01838981343873518</v>
       </c>
     </row>
     <row r="510" spans="1:3">
@@ -6363,7 +6363,7 @@
         <v>80</v>
       </c>
       <c r="C521">
-        <v>-0.009761584761904732</v>
+        <v>-0.009761584761904736</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -6385,7 +6385,7 @@
         <v>26</v>
       </c>
       <c r="C523">
-        <v>-0.009198059620596206</v>
+        <v>-0.009198059620596211</v>
       </c>
     </row>
     <row r="524" spans="1:3">
@@ -6396,7 +6396,7 @@
         <v>22</v>
       </c>
       <c r="C524">
-        <v>-0.009063839999999995</v>
+        <v>-0.00906384</v>
       </c>
     </row>
     <row r="525" spans="1:3">
@@ -6407,7 +6407,7 @@
         <v>84</v>
       </c>
       <c r="C525">
-        <v>-0.0075488</v>
+        <v>-0.007548799999999998</v>
       </c>
     </row>
     <row r="526" spans="1:3">
@@ -6429,7 +6429,7 @@
         <v>18</v>
       </c>
       <c r="C527">
-        <v>-0.007213361147327217</v>
+        <v>-0.007213361147327222</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -6440,7 +6440,7 @@
         <v>77</v>
       </c>
       <c r="C528">
-        <v>-0.005542628571428573</v>
+        <v>-0.005542628571428571</v>
       </c>
     </row>
     <row r="529" spans="1:3">
@@ -6451,7 +6451,7 @@
         <v>78</v>
       </c>
       <c r="C529">
-        <v>-0.005104462715105143</v>
+        <v>-0.005104462715105146</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -6459,10 +6459,10 @@
         <v>16</v>
       </c>
       <c r="B530" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C530">
-        <v>-0.004894601577909271</v>
+        <v>-0.00489460157790927</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -6473,7 +6473,7 @@
         <v>85</v>
       </c>
       <c r="C531">
-        <v>-0.004838840546697037</v>
+        <v>-0.00483884054669704</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -6495,7 +6495,7 @@
         <v>59</v>
       </c>
       <c r="C533">
-        <v>-0.004645034666666646</v>
+        <v>-0.004645034666666649</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -6506,7 +6506,7 @@
         <v>48</v>
       </c>
       <c r="C534">
-        <v>-0.004179954545454521</v>
+        <v>-0.00417995454545452</v>
       </c>
     </row>
     <row r="535" spans="1:3">
@@ -6536,10 +6536,10 @@
         <v>16</v>
       </c>
       <c r="B537" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C537">
-        <v>-0.002002162162162161</v>
+        <v>-0.002002162162162163</v>
       </c>
     </row>
     <row r="538" spans="1:3">
@@ -6547,10 +6547,10 @@
         <v>16</v>
       </c>
       <c r="B538" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C538">
-        <v>-0.001941658536585365</v>
+        <v>-0.001941658536585364</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -6580,7 +6580,7 @@
         <v>16</v>
       </c>
       <c r="B541" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C541">
         <v>-0.001084669926650366</v>
@@ -6613,7 +6613,7 @@
         <v>16</v>
       </c>
       <c r="B544" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C544">
         <v>0.002286095000000001</v>
@@ -6627,7 +6627,7 @@
         <v>81</v>
       </c>
       <c r="C545">
-        <v>-0.0003453030534351143</v>
+        <v>-0.0003453030534351093</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -6638,7 +6638,7 @@
         <v>20</v>
       </c>
       <c r="C546">
-        <v>-0.0002215364620938615</v>
+        <v>-0.000221536462093866</v>
       </c>
     </row>
     <row r="547" spans="1:3">
@@ -6657,7 +6657,7 @@
         <v>17</v>
       </c>
       <c r="B548" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C548">
         <v>0.0005959932203389841</v>
@@ -6668,7 +6668,7 @@
         <v>17</v>
       </c>
       <c r="B549" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C549">
         <v>0.0009304497981157454</v>
@@ -6693,7 +6693,7 @@
         <v>19</v>
       </c>
       <c r="C551">
-        <v>0.001282631134020619</v>
+        <v>0.001282631134020624</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -6712,7 +6712,7 @@
         <v>17</v>
       </c>
       <c r="B553" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C553">
         <v>0.002002583798882682</v>
@@ -6726,7 +6726,7 @@
         <v>22</v>
       </c>
       <c r="C554">
-        <v>0.002106725826193388</v>
+        <v>0.002106725826193395</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -6737,7 +6737,7 @@
         <v>70</v>
       </c>
       <c r="C555">
-        <v>0.002260800000000001</v>
+        <v>0.002260799999999999</v>
       </c>
     </row>
     <row r="556" spans="1:3">
@@ -6748,7 +6748,7 @@
         <v>18</v>
       </c>
       <c r="C556">
-        <v>0.002891400000000003</v>
+        <v>0.002891399999999998</v>
       </c>
     </row>
     <row r="557" spans="1:3">
@@ -6770,7 +6770,7 @@
         <v>66</v>
       </c>
       <c r="C558">
-        <v>0.003284171755725194</v>
+        <v>0.00328417175572519</v>
       </c>
     </row>
     <row r="559" spans="1:3">
@@ -6781,7 +6781,7 @@
         <v>55</v>
       </c>
       <c r="C559">
-        <v>0.003578175203252032</v>
+        <v>0.003578175203252034</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -6888,7 +6888,7 @@
         <v>17</v>
       </c>
       <c r="B569" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C569">
         <v>0.005372599638336347</v>
@@ -6902,7 +6902,7 @@
         <v>79</v>
       </c>
       <c r="C570">
-        <v>0.005900026970954355</v>
+        <v>0.005900026970954361</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -6924,7 +6924,7 @@
         <v>82</v>
       </c>
       <c r="C572">
-        <v>0.006043913344887334</v>
+        <v>0.006043913344887341</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -6957,7 +6957,7 @@
         <v>78</v>
       </c>
       <c r="C575">
-        <v>0.007709141037735854</v>
+        <v>0.007709141037735848</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -6987,7 +6987,7 @@
         <v>17</v>
       </c>
       <c r="B578" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C578">
         <v>0.009168857142857085</v>
@@ -7034,7 +7034,7 @@
         <v>75</v>
       </c>
       <c r="C582">
-        <v>0.01814720625000001</v>
+        <v>0.01814720625</v>
       </c>
     </row>
   </sheetData>
